--- a/data/genius_Bushido_Von-der-skyline-zum-bordstein-zuruck.xlsx
+++ b/data/genius_Bushido_Von-der-skyline-zum-bordstein-zuruck.xlsx
@@ -407,8 +407,35 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[Songtext zu „Intro (Von der Skyline zum Bordstein zurück)“][Intro]Du wirst geboren, du frisst ScheißeDu ziehst hinaus in die Welt, frisst noch mehr ScheißeKletterst immer höher, du frisst weniger scheißeBis du eines Tages die oberste Stufe erreichst und vergessen hast wie scheiße überhaupt aussiehtWillkommen am Futtertrog, SohnDu wirst geboren, du frisst Scheiße[Part 1: Bushido]Jetzt kommt mein Bezirk und der Rest kann gehenIch treff mich gerne am Block mit euch Kecks um ZehnIhr könnt runterfahren um wieder neu zu bootenIch bring den Sound aus dem Ghetto für 90 MinutenYeah, ich bin ein New Kid on the BlockIhr seid alle zu shit für den JobGuck her, Homie, du trägst BirkenstockAber Junge meine Boots sind Viertel-BossMein Tape und Tempelhof rultDein Tape und Schöneberg buhtDie Gangster, sie tun, was die Gangster so tunIch will Geld, ein Vermögen wär coolDeutschland kriegt Stress mit den Boyz n da HoodDu hast Pech, weil jeder Gangster jetzt auf dich spucktDu hast Pech, weil das liegt daran wie hässlich du guckstIch bring G-Rap back in den Club, YeahDu bist out, was willst du machen?Sonny, ich hab immer weiße Steine in den TaschenWo ich wohne gibt es leider nichts zu lachenWir sind in Berlin und wir bleiben hier die Krassen, YeahKomm her, komm, wenn du dich raustraustMeine Fans, sie sind wieder im KaufrauschBis der Goldrapper sich mal ein Haus kauftWo sind die Cowboys, kommt und ich hau draufSonny Black, du bist nicht High-TechAlles, was du machst, ist für mich nur ein ScheißdreckEs ist Mic-Check, mach dir nichts drausKomm und zeig mir deine Muskeln, ich lache dich ausWas hab ich schon alles erreicht, YeahIm Knast war 'ne eiserne Zeit, YeahMacht euch mal alle bereit, YeahDas ist mein Majoralbum Nummer Drei, Yeah
-[Outro]Du wirst geboren, du frisst Scheiße</t>
+          <t>[Songtext zu „Intro (Von der Skyline zum Bordstein zurück)“]
+[Intro]
+Du wirst geboren, du frisst ScheißeDu ziehst hinaus in die Welt, frisst noch mehr ScheißeKletterst immer höher, du frisst weniger scheißeBis du eines Tages die oberste Stufe erreichst und vergessen hast wie scheiße überhaupt aussiehtWillkommen am Futtertrog, Sohn
+Du wirst geboren, du frisst Scheiße
+[Part 1: Bushido]
+Jetzt kommt mein Bezirk und der Rest kann gehenIch treff mich gerne am Block mit euch Kecks um ZehnIhr könnt runterfahren um wieder neu zu bootenIch bring den Sound aus dem Ghetto für 90 MinutenYeah, ich bin ein New Kid on the BlockIhr seid alle zu shit für den Job
+Guck her, Homie, du trägst Birkenstock
+Aber Junge meine Boots sind Viertel-Boss
+Mein Tape und Tempelhof rultDein Tape und Schöneberg buht
+Die Gangster, sie tun, was die Gangster so tun
+Ich will Geld, ein Vermögen wär cool
+Deutschland kriegt Stress mit den Boyz n da HoodDu hast Pech, weil jeder Gangster jetzt auf dich spuckt
+Du hast Pech, weil das liegt daran wie hässlich du guckst
+Ich bring G-Rap back in den Club, Yeah
+Du bist out, was willst du machen?Sonny, ich hab immer weiße Steine in den Taschen
+Wo ich wohne gibt es leider nichts zu lachen
+Wir sind in Berlin und wir bleiben hier die Krassen, Yeah
+Komm her, komm, wenn du dich raustraust
+Meine Fans, sie sind wieder im Kaufrausch
+Bis der Goldrapper sich mal ein Haus kauft
+Wo sind die Cowboys, kommt und ich hau drauf
+Sonny Black, du bist nicht High-TechAlles, was du machst, ist für mich nur ein Scheißdreck
+Es ist Mic-Check, mach dir nichts drausKomm und zeig mir deine Muskeln, ich lache dich aus
+Was hab ich schon alles erreicht, Yeah
+Im Knast war 'ne eiserne Zeit, Yeah
+Macht euch mal alle bereit, Yeah
+Das ist mein Majoralbum Nummer Drei, Yeah
+[Outro]
+Du wirst geboren, du frisst Scheiße</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -460,9 +487,73 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[Part 1]Der Universal Soldier, Urban-AbteilungBushido, meine Jungs und ich stürmen dein Heim undIn der Hand hab ich ein brennendes BDamit mach ich dir heute Nacht ein Branding, okey?Ich bin wie Al Pacino, nenn mich Al BushidoIch glaube nächstes Jahr sehe ich mich selbst im KinoKing-Size in das Yayo, Ich fresse eure KugelnUnd die Kids suchen meine Texte jetzt bei GoogleMama weint, denn die Bullen klingeln an der TürErsguterjunge, wie ich meine Bande führDer Universal Soldier, sensationellGuck mich an ich halte wie ein Gangster das GeldGuten Appetit! Das hier ist kein PumpernikelDu kannst mich besuchen wenn ich deine Mutter fickeMit eiserner Faust teil ich jetzt ausDu Fettsack machst dich immernoch peinlich, du ClownBerlin, ich bin der City-Hai in der TownIch bin zuhause und nicke ein auf der Couch, yeahDeine Crew besteht aus Pennern und aus SäufernIch bin der erste und der letzte Gangsterrapper Deutschlands[Hook]Der Universal Soldier, es ist E G zum JGuck her es gibt neunundneunzig Wege zu GottDer Universal Soldier, es ist Sonny King BlackDer ElectroGhetto Staatsfeind, ich komme jetzt backDer Universal Soldier, es ist Tempel zum HofEin falscher Move und du wirst von diesem Gangster bedrohtDer Universal Soldier, für mich seid ihr alle RaverJungs, dass ist mein drittes Album, bei'nem Major
-[Part 2]Wer ist dieser eine Universal Soldier?Ich sitz zuhaus und schreibe die Verse auf dem SofaMittlerweile bist du ein perverser OpaVon mir gibt es Merchandise und diverse PosterUnd ich lebe bis ich sterb das "Vida Loca"Wenn's um Cash geht, dann lerne ich von SosaDu bist schwul und machst die Werbung jetzt in RosaWer ist dieser eine Universal Soldier?Der Universal Soldier und du dummer Toy begreifst nichtIch bin dieser Typ von Zelle 139Sonny Black, jetzt ist Auszeit, ihr seid die Desperate HousewivesUnd wisst das ihr im Ghetto nichts verkauft, neinJunge, die Hauptstadt, Big City LifeDer Eraser kommt heute beim Picknick vorbei, yeahMeine Wenigkeit ist Kult für die EwigkeitWenn ihr es nicht wollt, sperrt mich in 'nen Käfig einFragt Marik Lieberberg, ein Gauner ist auf TourGuck dich doch im Spiegel an, du Laune der NaturDer Universal Soldier in der schwulen Rap-SceneHört mich an ich ficke euren Groove Attack-DealWeil ich komplett euren Haufen hassDas hier ist Tempelhof, das ist nicht der Frauenknast, yeahUnd jetzt trink erstmal den PflaumenschnapsIn deinem krassen Leben ist dein krasser Traum geplatzt, ohDu kannst niemandem vertrauen, du SpasstIch bin der, dessen Finger du im Auge hastImmernoch bin ich sowas wie der SandmannUnd immernoch hab ich jeden Film mit van Damme, yeah
-[Hook]Der Universal Soldier, es ist E G zum JGuck her es gibt neunundneunzig Wege zu GottDer Universal Soldier, es ist Sonny King BlackDer ElectroGhetto Staatsfeind, ich komme jetzt backDer Universal Soldier, es ist Tempel zum HofEin falscher Move und du wirst von diesem Gangster bedrohtDer Universal Soldier, für mich seid ihr alle RaverJungs, dass ist mein drittes Album, bei'nem Major</t>
+          <t>[Part 1]
+Der Universal Soldier, Urban-Abteilung
+Bushido, meine Jungs und ich stürmen dein Heim und
+In der Hand hab ich ein brennendes B
+Damit mach ich dir heute Nacht einBranding, okey?
+Ich bin wie Al Pacino, nenn mich Al Bushido
+Ich glaube nächstes Jahr sehe ich mich selbst im Kino
+King-Size in dasYayo, Ich fresse eure Kugeln
+Und die Kids suchen meine Texte jetzt bei Google
+Mama weint, denn die Bullen klingeln an der Tür
+Ersguterjunge, wie ich meine Bande führ
+Der Universal Soldier, sensationell
+Guck mich an ich halte wie ein Gangster das Geld
+Guten Appetit! Das hier ist kein Pumpernikel
+Du kannst mich besuchen wenn ich deine Mutter ficke
+Mit eiserner Faust teil ich jetzt aus
+Du Fettsack machst dich immernoch peinlich, du Clown
+Berlin, ich bin der City-Hai in der Town
+Ich bin zuhause und nicke ein auf der Couch, yeah
+Deine Crew besteht aus Pennern und aus Säufern
+Ich bin der erste und der letzte Gangsterrapper Deutschlands
+[Hook]
+Der Universal Soldier, es ist E G zum J
+Guck her es gibt neunundneunzig Wege zu Gott
+Der Universal Soldier, es ist Sonny King Black
+Der ElectroGhetto Staatsfeind, ich komme jetzt back
+Der Universal Soldier, es ist Tempel zum Hof
+Ein falscher Move und du wirst von diesem Gangster bedroht
+Der Universal Soldier, für mich seid ihr alle Raver
+Jungs, dass ist mein drittes Album, bei'nem Major
+[Part 2]
+Wer ist dieser eine Universal Soldier?
+Ich sitz zuhaus und schreibe die Verse auf dem Sofa
+Mittlerweile bist du ein perverser Opa
+Von mir gibt es Merchandise und diverse Poster
+Und ich lebe bis ich sterb das "Vida Loca"
+Wenn's um Cash geht, dann lerne ich von Sosa
+Du bist schwul und machst die Werbung jetzt in Rosa
+Wer ist dieser eine Universal Soldier?
+Der Universal Soldier und du dummer Toy begreifst nicht
+Ich bin dieser Typ von Zelle 139
+Sonny Black, jetzt ist Auszeit, ihr seid die Desperate Housewives
+Und wisst das ihr im Ghetto nichts verkauft, nein
+Junge, die Hauptstadt, Big City Life
+Der Eraser kommt heute beim Picknick vorbei, yeah
+Meine Wenigkeit ist Kult für die Ewigkeit
+Wenn ihr es nicht wollt, sperrt mich in 'nen Käfig ein
+Fragt Marik Lieberberg, ein Gauner ist auf Tour
+Guck dich doch im Spiegel an, du Laune der Natur
+Der Universal Soldier in der schwulen Rap-SceneHört mich an ich ficke euren Groove Attack-Deal
+Weil ich komplett euren Haufen hass
+Das hier ist Tempelhof, das ist nicht der Frauenknast, yeah
+Und jetzt trink erstmal den Pflaumenschnaps
+In deinem krassen Leben ist dein krasser Traum geplatzt, oh
+Du kannst niemandem vertrauen, du Spasst
+Ich bin der, dessen Finger du im Auge hast
+Immernoch bin ich sowas wie der Sandmann
+Und immernoch hab ich jeden Film mit van Damme, yeah
+[Hook]
+Der Universal Soldier, es ist E G zum J
+Guck her es gibt neunundneunzig Wege zu Gott
+Der Universal Soldier, es ist Sonny King Black
+Der ElectroGhetto Staatsfeind, ich komme jetzt back
+Der Universal Soldier, es ist Tempel zum Hof
+Ein falscher Move und du wirst von diesem Gangster bedroht
+Der Universal Soldier, für mich seid ihr alle Raver
+Jungs, dass ist mein drittes Album, bei'nem Major</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -514,9 +605,75 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Part 1]Jeder macht auf einmal Geld, grad, wo ihr zufrieden wartSucht ihr eure krassen Features, sucht sie doch bei mir im ArschSido kannst nicht mit mir reden du hast einen Schwanz im MundAlle sind jetzt cool für mich bist du nur ein Spast na undWer von euch ist auf der Straße wenn ich durch mein Viertel lauf'Ich ficke eure ganzen Tapes, die ihr wegen mir verkauftIch ficke euren Untergrund, keiner von euch setzt hier TrendsEure coole DVD ist ohne mich nicht existentKeiner würde von euch rappen keine von euch Witzfigur'nSagt mir wer ist mit mir down Rap ist eine MissgeburtIhr seid jetzt Community und denkt dass ihr am Mic flextKommt nach Schöneberg und zeigt mir euren Scheiß-TextIhr alle seid nett alle wollen in die JuiceJunge und zur Warnung schieße ich dir in den FußZurück zum Bordstein, fick' auf eure Baggy-ZeitenEure Scheiße geht jetzt in die Hose so wie Rally-Streifen[Hook]Erst war Carlo Cokxxx jetzt ist jeder hart und flowtDu fickst nur mit deiner Freundin warum ist dein Arsch so rotDeutscher Rap er liegt am Boden aber er will gerade hochWeißt du was ich mache ich hol ein' Stein und schlag' ihn totWeil ich nicht brav bin kommt keiner auf den PausenhofHeul' dir die Augen rot ich hol' mir jetzt dein PausenbrotDeutscher Rap steckt in 'nem Loch und versucht sich raus zu hol'nWeißt du was ich mache ich hol ein' Stein (Einstein) und hau' ihn tot
-[Part 2]Deutscher Rap will Ghetto werden aber das ist meine ShowGib es lieber zu mein Freund vor dir steht jetzt dein IdolGuck mal eure Mütter haben euch im Puff bekomm'Ihr seid Gangster aber rappt von 99 LuftballonsAll ihr Schwuchteln kommt ich ficke euren Hammer-SplashDu bist alles Muhabet aber nur nicht ArabeskeDenkt ihr ich seh' euch nicht wie ihr gerad' 'n' Harten machtAber ihr wisst ganz genau wer in Berlin das Sagen hatJeder will so sein wie ich jeder will ein' Schwanz aus SteinDeutscher Rap hat keine Freunde guck ich steh' hier ganz alleinEs ist die Electro-Faust verdammtGib die Backspin her mein Klopapier ist ausgegang'Guck alle Rapper dieses Landes haben ihre Faust geballtDoch ich ficke eure Mütter und ihr habt ein' Kloß im HalsSagt mir wer von euch ohne Kopf behindert gucktIch mache was ich will RoboCop is in the hood[Hook]Erst war Carlo Cokxxx jetzt ist jeder hart und flowtDu fickst nur mit deiner Freundin warum ist dein Arsch so rotDeutscher Rap er liegt am Boden aber er will gerade hochWeißt du was ich mache ich hol ein' Stein und schlag' ihn totWeil ich nicht brav bin kommt keiner auf den PausenhofHeul' dir die Augen rot ich hol' mir jetzt dein PausenbrotDeutscher Rap steckt in 'nem Loch und versucht sich raus zu hol'nWeißt du was ich mache ich hol ein' Stein (Einstein) und hau' ihn tot
-[Part 3]Junge ich bin schlecht gelaunt besser keine Faxen heuteJedes meiner Alben bumst jeden deiner Atzen-FreundeAlpha-Jacken cool wie ich auf Beton steh'Ich bin tight meine Fans tragen LonsdaleFrüher wart ihr aggro doch heute macht ihr Black-MusikIch zieh mir durch die Nase klein gehacktes EcstasyMacht was ihr wollt für euch Huren bleib' ich KingWenn ich euch seh' denk' ich dass ich schwulenfeindlich binDu kannst nur am Mic gewinn' das hier soll 'ne Warnung seinSteck dir dein Südberlin-T-Shirt in den Anus reinSag mir wer hat keine Angst sag wer sich jetzt messen willDoch ich bleibe dieser Junge der euch jetzt beim Rappen killtErstguterjunge guck ich bin der Boss der GangSieht es ein echte Rapper haben keinen Ostler-SlangIhr geht alle statt zu rappen händchenhaltend auf der WieseHoffe es macht euch nicht aus wenn ich also auf euch schieße[Hook]Erst war Carlo Cokxxx jetzt ist jeder hart und flowtDu fickst nur mit deiner Freundin warum ist dein Arsch so rotDeutscher Rap er liegt am Boden aber er will gerade hochWeißt du was ich mache ich hol ein' Stein und schlag' ihn totWeil ich nicht brav bin kommt keiner auf den PausenhofHeul' dir die Augen rot ich hol' mir jetzt dein PausenbrotDeutscher Rap steckt in 'nem Loch und versucht sich raus zu hol'nWeißt du was ich mache ich hol ein' Stein (Einstein) und hau' ihn tot</t>
+          <t>[Part 1]
+Jeder macht auf einmal Geld, grad, wo ihr zufrieden wart
+Sucht ihr eure krassen Features, sucht sie doch bei mir im Arsch
+Sido kannst nicht mit mir reden du hast einen Schwanz im MundAlle sind jetzt cool für mich bist du nur ein Spast na und
+Wer von euch ist auf der Straße wenn ich durch mein Viertel lauf'
+Ich ficke eure ganzen Tapes, die ihr wegen mir verkauft
+Ich ficke euren Untergrund, keiner von euch setzt hier Trends
+Eure coole DVD ist ohne mich nicht existent
+Keiner würde von euch rappen keine von euch Witzfigur'n
+Sagt mir wer ist mit mir down Rap ist eine Missgeburt
+Ihr seid jetzt Community und denkt dass ihr am Mic flextKommt nach Schöneberg und zeigt mir euren Scheiß-Text
+Ihr alle seid nett alle wollen in die JuiceJunge und zur Warnung schieße ich dir in den Fuß
+Zurück zum Bordstein, fick' auf eure Baggy-Zeiten
+Eure Scheiße geht jetzt in die Hose so wie Rally-Streifen
+[Hook]
+Erst war Carlo Cokxxx jetzt ist jeder hart und flowtDu fickst nur mit deiner Freundin warum ist dein Arsch so rot
+Deutscher Rap er liegt am Boden aber er will gerade hoch
+Weißt du was ich mache ich hol ein' Stein und schlag' ihn tot
+Weil ich nicht brav bin kommt keiner auf den PausenhofHeul' dir die Augen rot ich hol' mir jetzt dein Pausenbrot
+Deutscher Rap steckt in 'nem Loch und versucht sich raus zu hol'n
+Weißt du was ich mache ich hol ein' Stein (Einstein) und hau' ihn tot
+[Part 2]
+Deutscher Rap will Ghetto werden aber das ist meine Show
+Gib es lieber zu mein Freund vor dir steht jetzt dein Idol
+Guck mal eure Mütter haben euch im Puff bekomm'
+Ihr seid Gangster aber rappt von 99 Luftballons
+All ihr Schwuchteln kommt ich ficke euren Hammer-Splash
+Du bist alles Muhabet aber nur nicht Arabeske
+Denkt ihr ich seh' euch nicht wie ihr gerad' 'n' Harten macht
+Aber ihr wisst ganz genau wer in Berlin das Sagen hat
+Jeder will so sein wie ich jeder will ein' Schwanz aus Stein
+Deutscher Rap hat keine Freunde guck ich steh' hier ganz allein
+Es ist die Electro-Faust verdammt
+Gib die Backspin her mein Klopapier ist ausgegang'
+Guck alle Rapper dieses Landes haben ihre Faust geballt
+Doch ich ficke eure Mütter und ihr habt ein' Kloß im Hals
+Sagt mir wer von euch ohne Kopf behindert guckt
+Ich mache was ich will RoboCop is in the hood
+[Hook]
+Erst war Carlo Cokxxx jetzt ist jeder hart und flowtDu fickst nur mit deiner Freundin warum ist dein Arsch so rot
+Deutscher Rap er liegt am Boden aber er will gerade hoch
+Weißt du was ich mache ich hol ein' Stein und schlag' ihn tot
+Weil ich nicht brav bin kommt keiner auf den PausenhofHeul' dir die Augen rot ich hol' mir jetzt dein Pausenbrot
+Deutscher Rap steckt in 'nem Loch und versucht sich raus zu hol'n
+Weißt du was ich mache ich hol ein' Stein (Einstein) und hau' ihn tot
+[Part 3]
+Junge ich bin schlecht gelaunt besser keine Faxen heute
+Jedes meiner Alben bumst jeden deiner Atzen-Freunde
+Alpha-Jacken cool wie ich auf Beton steh'
+Ich bin tight meine Fans tragen Lonsdale
+Früher wart ihr aggro doch heute macht ihr Black-Musik
+Ich zieh mir durch die Nase klein gehacktes Ecstasy
+Macht was ihr wollt für euch Huren bleib' ich King
+Wenn ich euch seh' denk' ich dass ich schwulenfeindlich bin
+Du kannst nur am Mic gewinn' das hier soll 'ne Warnung sein
+Steck dir dein Südberlin-T-Shirt in den Anus rein
+Sag mir wer hat keine Angst sag wer sich jetzt messen will
+Doch ich bleibe dieser Junge der euch jetzt beim Rappen killt
+Erstguterjunge guck ich bin der Boss der Gang
+Sieht es ein echte Rapper haben keinen Ostler-Slang
+Ihr geht alle statt zu rappen händchenhaltend auf der Wiese
+Hoffe es macht euch nicht aus wenn ich also auf euch schieße
+[Hook]
+Erst war Carlo Cokxxx jetzt ist jeder hart und flowtDu fickst nur mit deiner Freundin warum ist dein Arsch so rot
+Deutscher Rap er liegt am Boden aber er will gerade hoch
+Weißt du was ich mache ich hol ein' Stein und schlag' ihn tot
+Weil ich nicht brav bin kommt keiner auf den PausenhofHeul' dir die Augen rot ich hol' mir jetzt dein Pausenbrot
+Deutscher Rap steckt in 'nem Loch und versucht sich raus zu hol'n
+Weißt du was ich mache ich hol ein' Stein (Einstein) und hau' ihn tot</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -568,9 +725,78 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[Part 1]Ich bin zweimal Gold gegangen, zweimal Gold gegangenObwohl ich es nur einmal wollte manIch bin der goldene Mann, schreibe einen Vers im KnastDeutscher Rap ist meine Nutte, was ich sage wird gemachtIch bin ein Hochkarräter,ich rappe ohne GegnerLeute mich zu unterschätzen war ein großer FehlerIch bin die Goldkehle hol mir einen DolmetscherFür viele von euch war ich früher nur ein ProllrapperIch bin Bushido, ich bin Mr. 100.000Und deine Jungs müssen jeden Tag zur Uni laufen (yeah)Ich bin ein Grund zu kaufen, weil ich so ein Mensch binManche Leute sagen ich hab das goldene HändchenIch bin jetzt Labelboss, für euch Rapper ist's zu spätIch geh auf Tour und komm wie Michael Jackson auf die StageUnd ja ich geb euch allen jetzt was ihr wolltIch bin wer? Ich bin der, dieser Rapper aus Gold (yeah)[Hook]100.000 und diese 100.000Konnte ich schon zweimal verkaufenDas hier ist Volksmusik, das hier ist GoldmusikJeder weiß doch ich hab mir den Erfolg verdient100.000 und diese 100.000Konnte ich schon zweimal verkaufenManchmal denk ich,dass das Pech mich verfolgtDoch dann fällt mir wieder ein ich bin der Rapper aus Gold
-[Part 2]Ich hab zweimal Gold geschrieben, zweimal Gold geschriebenIch hab euch nie gesagt ihr sollt mich liebenDas hier ist nicht diese 100.000 Mark-ShowUndercover, Untergrund Carlo-Veteran-FlowIch bin Gold gegangen du hast einen GoldzahnIch bin der Underdog der so einfach aus dem Volk kamEs ist soweit man will mich jetzt klonenGeh vom Fenster weg, Gangsterrap 6 von 6 Kron'Ich hab es einfach mit dem Finger aufgeschriebenWas kann ich dafür das mich alle Kinder draußen liebenIch hab Goldfieber, ich bin wieder im WahnIch weiß jeder von euch würde gerne Siebener fahrenDas Rapgeschäft, ich bin in der Branche der KillerNummer 1 TRL wer braucht Bronze und Silber?Mit 'nem goldenen Füller schreib ich Texte mit stolzIch bin wer? Ich bin der,dieser Rapper aus Gold (yeah)[Hook]100.000 und diese 100.000Konnte ich schon zweimal verkaufenDas hier ist Volksmusik, das hier ist GoldmusikJeder weiß doch ich hab mir den Erfolg verdient100.000 und diese 100.000Konnte ich schon zweimal verkaufenManchmal denk ich,dass das Pech mich verfolgtDoch dann fällt mir wieder ein ich bin der Rapper aus Gold
-[Part 3]:Ich hab zweimal Gold gemacht, zweimal Gold gemachtIch hab in der Szene eine solche MachtGuck mich an, ich muss nur mit dem Finger schnippsenUnd alle drehen durch als würden sie im Swinger sitzenSido klingt beschissen, er muss sich schämenHör mir gut zu ich sag dir die drei goldenen RegelnNummer 1: Ich radier dich textlich ausDu hast die Maske auf denn du siehst so hässlich ausNummer 2: Ich scheiß auf dich und Aggro auchUm Gold zu gehen hab ich nicht mein Arsch verkauftNummer 3: Und weil du eine Pussy bist SidoGeht keiner zweimal Gold, nur BushidoFür mich seid ihr alle Fans und StatistenIrgendwann wird man mir ein Denkmal errichtenEs stimmt meine Platten waren ein echter ErfolgIch bin wer? Ich bin der, dieser Rapper aus Gold (yeah)[Hook]100.000 und diese 100.000Konnte ich schon zweimal verkaufenDas hier ist Volksmusik, das hier ist GoldmusikJeder weiß doch ich hab mir den Erfolg verdient100.000 und diese 100.000Konnte ich schon zweimal verkaufenManchmal denk ich,dass das Pech mich verfolgtDoch dann fällt mir wieder ein ich bin der Rapper aus Gold</t>
+          <t>[Part 1]
+Ich bin zweimal Gold gegangen, zweimal Gold gegangen
+Obwohl ich es nur einmal wollte man
+Ich bin der goldene Mann, schreibe einen Vers im Knast
+Deutscher Rap ist meine Nutte, was ich sage wird gemacht
+Ich bin ein Hochkarräter,ich rappe ohne Gegner
+Leute mich zu unterschätzen war ein großer Fehler
+Ich bin die Goldkehle hol mir einen Dolmetscher
+Für viele von euch war ich früher nur ein Prollrapper
+Ich bin Bushido, ich bin Mr. 100.000
+Und deine Jungs müssen jeden Tag zur Uni laufen (yeah)
+Ich bin ein Grund zu kaufen, weil ich so ein Mensch bin
+Manche Leute sagen ich hab das goldene Händchen
+Ich bin jetzt Labelboss, für euch Rapper ist's zu spät
+Ich geh auf Tour und komm wie Michael Jackson auf die Stage
+Und ja ich geb euch allen jetzt was ihr wollt
+Ich bin wer? Ich bin der, dieser Rapper aus Gold (yeah)
+[Hook]
+100.000 und diese 100.000
+Konnte ich schon zweimal verkaufen
+Das hier ist Volksmusik, das hier ist Goldmusik
+Jeder weiß doch ich hab mir den Erfolg verdient
+100.000 und diese 100.000
+Konnte ich schon zweimal verkaufen
+Manchmal denk ich,dass das Pech mich verfolgt
+Doch dann fällt mir wieder ein ich bin der Rapper aus Gold
+[Part 2]
+Ich hab zweimal Gold geschrieben, zweimal Gold geschrieben
+Ich hab euch nie gesagt ihr sollt mich lieben
+Das hier ist nicht diese 100.000 Mark-Show
+Undercover, Untergrund Carlo-Veteran-Flow
+Ich bin Gold gegangen du hast einen Goldzahn
+Ich bin der Underdog der so einfach aus dem Volk kam
+Es ist soweit man will mich jetzt klonen
+Geh vom Fenster weg, Gangsterrap 6 von 6 Kron'
+Ich hab es einfach mit dem Finger aufgeschrieben
+Was kann ich dafür das mich alle Kinder draußen lieben
+Ich hab Goldfieber, ich bin wieder im Wahn
+Ich weiß jeder von euch würde gerne Siebener fahren
+Das Rapgeschäft, ich bin in der Branche der Killer
+Nummer 1 TRL wer braucht Bronze und Silber?
+Mit 'nem goldenen Füller schreib ich Texte mit stolz
+Ich bin wer? Ich bin der,dieser Rapper aus Gold (yeah)
+[Hook]
+100.000 und diese 100.000
+Konnte ich schon zweimal verkaufen
+Das hier ist Volksmusik, das hier ist Goldmusik
+Jeder weiß doch ich hab mir den Erfolg verdient
+100.000 und diese 100.000
+Konnte ich schon zweimal verkaufen
+Manchmal denk ich,dass das Pech mich verfolgt
+Doch dann fällt mir wieder ein ich bin der Rapper aus Gold
+[Part 3]:
+Ich hab zweimal Gold gemacht, zweimal Gold gemacht
+Ich hab in der Szene eine solche Macht
+Guck mich an, ich muss nur mit dem Finger schnippsen
+Und alle drehen durch als würden sie im Swinger sitzen
+Sido klingt beschissen, er muss sich schämenHör mir gut zu ich sag dir die drei goldenen RegelnNummer 1: Ich radier dich textlich ausDu hast die Maske auf denn du siehst so hässlich ausNummer 2: Ich scheiß auf dich und Aggro auchUm Gold zu gehen hab ich nicht mein Arsch verkauftNummer 3: Und weil du eine Pussy bist Sido
+Geht keiner zweimal Gold, nur Bushido
+Für mich seid ihr alle Fans und Statisten
+Irgendwann wird man mir ein Denkmal errichten
+Es stimmt meine Platten waren ein echter Erfolg
+Ich bin wer? Ich bin der, dieser Rapper aus Gold (yeah)
+[Hook]
+100.000 und diese 100.000
+Konnte ich schon zweimal verkaufen
+Das hier ist Volksmusik, das hier ist Goldmusik
+Jeder weiß doch ich hab mir den Erfolg verdient
+100.000 und diese 100.000
+Konnte ich schon zweimal verkaufen
+Manchmal denk ich,dass das Pech mich verfolgt
+Doch dann fällt mir wieder ein ich bin der Rapper aus Gold</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -622,9 +848,80 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[Songtext zu „Sonnenbank Flavour“][Part 1]Sonnenbank-Flavour, letztes Jahr angezeigtTunis, Goldrapper, „Blaues Licht“, Rambo 3Cordon Sport Massenmord, Schutzgeld-PaytimeTempelhof, Schöneberg, Amstaff GaylineGet the clip Viva Plus, TRL MTVBerlin-Neukölln, Abou-Chaker-FamilySonny Black, Prototyp, Nemesis, TalibanAraber, Terrorist, Anführer Dschingis KhanAggro West-Ex Fame, Nightlife KnastmusikBordstein, Skyline, Faustschlag, AspirinCarlo Cokxxx Nutten, yeah, Kreuzberg StudioUniversal, Guterjunge, du bist ein HurensohnHugo Boss, Bang Bus, extrem notgeilArmband-Breitling, Backstage, ShowtimeBullrot, Air Max, Primetime, KokainDoreen, Maskenmann, Aidstest positiv[Hook]Der Sonnenbank-Flavour-Solarium-FlowZur Hilfe hast du deine Kameraden geholtJungs schaut mir in die Kerbe, sagt mir jetzt, wer ist straighter? (Straighter)Das ist der Sonnenbank-FlavourDer Sonnenbank-Flavour, die künstliche BräuneDu kannst sie alle hol'n, komm, ich fick' deine FreundeJungs, gebt euch keine Mühe, für mich seid ihr alle Raver (Raver)Das ist der Sonnenbank-Flavour
-[Part 2]Sonnenbank-Flavour, BMW EigentumMeine Clique, meine Gang, meine Jungs, meine CrewMic-Check, King-Kong, Major-Album Nummer dreiEko Fresh, Baba Saad, Newcomer Nummer einsUntergrund-Charttipp, Deutschrap-ElefantUndercover-Kickbox, Groupienutten penetrantLaptop, Rapgott, Lederjacken-ProllschieneErsguterjunge, yeah, mein Label eine GoldmineGuck mich an, Untertan, Heavy Metal-PaybackBRAVO Black, Schlammschlacht, über Nacht zum Fame-RapGangBang, Cowboy, Staatsfeind, InterpolBrandneu-Nike Shox, Endgegner: KlingeltonHautcreme, Haarwachs, Nikotin, AlkoholAlle Kids überall gehen raus, Album hol'nBlitzlicht, Highlight, was für ein Burner-BeatAsphalt, das ist G-Unit Germany![Hook]Der Sonnenbank-Flavour-Solarium-FlowZur Hilfe hast du deine Kameraden geholtJungs schaut mir in die Kerbe, sagt mir jetzt, wer ist straighter? (Straighter)Das ist der Sonnenbank-FlavourDer Sonnenbank-Flavour, die künstliche BräuneDu kannst sie alle hol'n, komm, ich fick' deine FreundeJungs, gebt euch keine Mühe, für mich seid ihr alle Raver (Raver)Das ist der Sonnenbank-Flavour
-[Part 3]Sonnenbank-Flavour, Late-Night, RockstarRaptile, Rapsoul, Curse sind OpferGangsterrap, Kriegsfuß, Neumann MikrofonAlle Leute wissen, dass in mei'm Bezirk die Dealer wohn'nTop zehn, Moslem, Bossgang im Block, Anpfiff, AngriffDann mit Lynchmob, Nitroglyzerin, meine Live-DVDIch bin für Berlin, Hertha BSCEinkauf, Niketown, Anonym-MillionärUnd es laufen jetzt alle ihm hinterherBandit, kriminell, Dealer, schwarzer MarktGuckt mal, ich bezahl' Visa MastercardOddset, Nescafe, Sunpoint, DynastieAggressiv, Anschlag, Selbstmord, DynamitHightech, Schlägerei, Industrie, FaustfickMeine Lieder sind für die Kinder, so wie Rauschgift[Hook]Der Sonnenbank-Flavour-Solarium-FlowZur Hilfe hast du deine Kameraden geholtJungs schaut mir in die Kerbe, sagt mir jetzt, wer ist straighter? (Straighter)Das ist der Sonnenbank-FlavourDer Sonnenbank-Flavour, die künstliche BräuneDu kannst sie alle hol'n, komm, ich fick' deine FreundeJungs, gebt euch keine Mühe, für mich seid ihr alle Raver (Raver)Das ist der Sonnenbank-Flavour</t>
+          <t>[Songtext zu „Sonnenbank Flavour“]
+[Part 1]
+Sonnenbank-Flavour, letztes Jahr angezeigt
+Tunis,Goldrapper,„Blaues Licht“, Rambo 3
+Cordon Sport Massenmord,Schutzgeld-Paytime
+Tempelhof, Schöneberg,Amstaff Gayline
+Get the clip Viva Plus, TRL MTV
+Berlin-Neukölln,Abou-Chaker-Family
+Sonny Black,Prototyp,Nemesis,Taliban
+Araber, Terrorist,Anführer Dschingis Khan
+Aggro West-Ex Fame,Nightlife Knastmusik
+Bordstein, Skyline,Faustschlag, Aspirin
+Carlo Cokxxx Nutten,yeah, Kreuzberg Studio
+Universal, Guterjunge, du bist ein Hurensohn
+Hugo Boss,Bang Bus, extrem notgeil
+Armband-Breitling, Backstage, Showtime
+Bullrot, Air Max, Primetime, Kokain
+Doreen, Maskenmann, Aidstest positiv
+[Hook]
+Der Sonnenbank-Flavour-Solarium-Flow
+Zur Hilfe hast du deine Kameraden geholt
+Jungs schaut mir in die Kerbe, sagt mir jetzt, wer ist straighter?(Straighter)
+Das ist der Sonnenbank-Flavour
+Der Sonnenbank-Flavour, die künstliche Bräune
+Du kannst sie alle hol'n, komm, ich fick' deine FreundeJungs, gebt euch keine Mühe, für mich seid ihr alle Raver (Raver)
+Das ist der Sonnenbank-Flavour
+[Part 2]
+Sonnenbank-Flavour,BMW Eigentum
+Meine Clique, meine Gang, meine Jungs, meine Crew
+Mic-Check, King-Kong,Major-Album Nummer drei
+Eko Fresh,Baba Saad, Newcomer Nummer eins
+Untergrund-Charttipp,Deutschrap-Elefant
+Undercover-Kickbox, Groupienutten penetrant
+Laptop, Rapgott, Lederjacken-Prollschiene
+Ersguterjunge, yeah, mein Label eine Goldmine
+Guck mich an, Untertan,Heavy Metal-Payback
+BRAVOBlack, Schlammschlacht, über Nacht zum Fame-Rap
+GangBang, Cowboy, Staatsfeind, Interpol
+Brandneu-Nike Shox,Endgegner: Klingelton
+Hautcreme, Haarwachs, Nikotin, Alkohol
+Alle Kids überall gehen raus, Album hol'n
+Blitzlicht, Highlight, was für ein Burner-Beat
+Asphalt,das ist G-Unit Germany!
+[Hook]
+Der Sonnenbank-Flavour-Solarium-Flow
+Zur Hilfe hast du deine Kameraden geholt
+Jungs schaut mir in die Kerbe, sagt mir jetzt, wer ist straighter? (Straighter)
+Das ist der Sonnenbank-Flavour
+Der Sonnenbank-Flavour, die künstliche Bräune
+Du kannst sie alle hol'n, komm, ich fick' deine FreundeJungs, gebt euch keine Mühe, für mich seid ihr alle Raver (Raver)
+Das ist der Sonnenbank-Flavour
+[Part 3]
+Sonnenbank-Flavour, Late-Night, Rockstar
+Raptile, Rapsoul, Curse sind Opfer
+Gangsterrap, Kriegsfuß, Neumann Mikrofon
+Alle Leute wissen, dass in mei'm Bezirk die Dealer wohn'n
+Top zehn, Moslem, Bossgang im Block, Anpfiff, AngriffDann mit Lynchmob, Nitroglyzerin, meine Live-DVD
+Ich bin für Berlin, Hertha BSC
+Einkauf, Niketown, Anonym-Millionär
+Und es laufen jetzt alle ihm hinterher
+Bandit, kriminell, Dealer, schwarzer Markt
+Guckt mal, ich bezahl' Visa Mastercard
+Oddset, Nescafe, Sunpoint, Dynastie
+Aggressiv, Anschlag, Selbstmord, Dynamit
+Hightech, Schlägerei, Industrie, Faustfick
+Meine Lieder sind für die Kinder, so wie Rauschgift
+[Hook]
+Der Sonnenbank-Flavour-Solarium-Flow
+Zur Hilfe hast du deine Kameraden geholt
+Jungs schaut mir in die Kerbe, sagt mir jetzt, wer ist straighter? (Straighter)
+Das ist der Sonnenbank-Flavour
+Der Sonnenbank-Flavour, die künstliche Bräune
+Du kannst sie alle hol'n, komm, ich fick' deine FreundeJungs, gebt euch keine Mühe, für mich seid ihr alle Raver (Raver)
+Das ist der Sonnenbank-Flavour</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -676,9 +973,106 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[Songtext zu „Kurt Cubain“][Part 1]Klick-Klack-Klick-Klack Boom!Das ist Kurt Cobain, Lauf in den MundIch bin dieser Typ, der dich einfach haut ohne GrundAlso lauf, lauf wie ein HundEs ist aus mit euch, Jungs, es machtKlick-Klack-Klick-Klack Boom!Ich bin in einem Hotel mit Jamie FoxxIn der Schule war ich der, der sich mit Jamil boxtErstguterjunge-Labelboss, du erlebst ein SchockEs macht nämlichKlick-Klack-Klick-Klack Boom!Ja und alle wollen Rapper spielenDoch ich schwebe über euch allen wie ein ZeppelinIch bin der King und ich habe ein perfektes TeamBesser flieh, wenn du hörstKlick-Klack-Klick-Klack Boom!Und mein Album ist jetzt wieder BurnerDeine Mama ist 'ne Crackbitch wie Tina TurnerDu sitzt am Lagerfeuer und hörst Christina StürmerIch bin der Leader hör malKlick-Klack-Klick-Klack Boom![Hook]Das ganze Geld da draußen werde ich mir wirklich nehmenWas denkst du, wer du bist, du redest nicht mit irgendwemJunge, mach die Augen auf und dann wirst du's sehenKlick-Klack-Klick-Klack Boom!Ich bin Kurt CobainIch weiß nicht was morgen ist, aber es wird schon gehenErsguterjunge, Universal, Urban-FameJunge streng dich etwas an und du wirst verstehenKlick-Klack-Klick-Klack Boom!Ich bin Kurt Cobain
-[Part 2]Es ist Kurt Cobain, wie ich aus dem Touareg steigDie Frauen wollen mein Herz doch es ist leider nur aus SteinAlles hat ein Ende, doch die Wurst hat zweiKomm auf Tour vorbei, oh yeahKlick-Klack-Klick-Klack Boom!Und der Kampf beginntJunge, guck wie deine Freundin meinen Schwanz verschlingtDu willst mich aufhalten? Ganz bestimmtIch bin ein Mann, du KindUnd es macht immerKlick-Klack-Klick-Klack Boom!Ich bin Raps Charles BronsonGebt euch keine Mühe, für mich seid ihr alles BonzenEs ist Untergrund, Rap-KatakombenIch werf' auf deinen Vater BombenUnd er hörtKlick-Klack-Klick-Klack Boom!Weil bei euch wieder nix gehtIch bin dieser Junge der auch Mädchen ins Gesicht schlägtIch will kein Feature und ich scheiße auf dein MixtapeIch lieb es, wenn es klickt, eyKlick-Klack-Klick-Klack Boom![Hook]Das ganze Geld da draußen werde ich mir wirklich nehmenWas denkst du, wer du bist, du redest nicht mit irgendwemJunge, mach die Augen auf und dann wirst du's sehenKlick-Klack-Klick-Klack Boom!Ich bin Kurt CobainIch weiß nicht was morgen ist, aber es wird schon gehenErsguterjunge, Universal, Urban-FameJunge streng dich etwas an und du wirst verstehenKlick-Klack-Klick-Klack Boom!Ich bin Kurt Cobain
-[Part 3]Es ist Kurt Cobain, Knarre an die SchläfeIch sitze am Kopf des Tisch und halte eine RedeDie Leute sind jetzt mein Album am empfehlenIch will alle eure SeelenEs macht Klick-Klack-Klick-Klack Boom!Und du musst dich dann versteckenDu hast kein' Trend gesetzt, außer wie mein Schwanz zu rappenMein altes Album läuft, alle fangen an zu backenNiemand kann dich retten, HomieEs macht Klick-Klack-Klick-Klack Boom!Und alle werden kreidebleichJunge, und ich komm in deine Stadt wie Michael KnightSonny Black, der beste Rapper seiner ZeitEs ist leicht wie ein mal einsKlick-Klack-Klick-Klack Boom!Oh ja, ich warne dich, komm herUnd die Paparazzi fahren dem Wagen hinterherSagt mir wen ihr wollt: bin Laden oder Fler?Guck, ich lade das GewehrEs macht Klick-Klack-Klick-Klack Boom![Hook]Das ganze Geld da draußen werde ich mir wirklich nehmenWas denkst du, wer du bist, du redest nicht mit irgendwemJunge, mach die Augen auf und dann wirst du's sehenKlick-Klack-Klick-Klack Boom!Ich bin Kurt CobainIch weiß nicht was morgen ist, aber es wird schon gehenErsguterjunge, Universal, Urban-FameJunge streng dich etwas an und du wirst verstehenKlick-Klack-Klick-Klack Boom!Ich bin Kurt Cobain</t>
+          <t>[Songtext zu „Kurt Cubain“]
+[Part 1]
+Klick-Klack-Klick-Klack Boom!
+Das ist Kurt Cobain, Lauf in den Mund
+Ich bin dieser Typ, der dich einfach haut ohne Grund
+Also lauf, lauf wie ein Hund
+Es ist aus mit euch, Jungs, es macht
+Klick-Klack-Klick-Klack Boom!
+Ich bin in einem Hotel mitJamie Foxx
+In der Schule war ich der, der sich mit Jamil boxt
+Erstguterjunge-Labelboss, du erlebst ein Schock
+Es macht nämlich
+Klick-Klack-Klick-Klack Boom!
+Ja und alle wollen Rapper spielen
+Doch ich schwebe über euch allen wie ein Zeppelin
+Ich bin der King und ich habe ein perfektes Team
+Besser flieh, wenn du hörst
+Klick-Klack-Klick-Klack Boom!
+Und mein Album ist jetzt wieder Burner
+Deine Mama ist 'ne Crackbitch wie Tina Turner
+Du sitzt am Lagerfeuer und hörst Christina Stürmer
+Ich bin der Leader hör mal
+Klick-Klack-Klick-Klack Boom!
+[Hook]
+Das ganze Geld da draußen werde ich mir wirklich nehmen
+Was denkst du, wer du bist, du redest nicht mit irgendwem
+Junge, mach die Augen auf und dann wirst du's sehen
+Klick-Klack-Klick-Klack Boom!
+Ich bin Kurt Cobain
+Ich weiß nicht was morgen ist, aber es wird schon gehen
+Ersguterjunge, Universal, Urban-Fame
+Junge streng dich etwas an und du wirst verstehen
+Klick-Klack-Klick-Klack Boom!
+Ich bin Kurt Cobain
+[Part 2]
+Es ist Kurt Cobain, wie ich aus dem Touareg steig
+Die Frauen wollen mein Herz doch es ist leider nur aus Stein
+Alles hat ein Ende, doch die Wurst hat zwei
+Komm auf Tour vorbei, oh yeah
+Klick-Klack-Klick-Klack Boom!
+Und der Kampf beginnt
+Junge, guck wie deine Freundin meinen Schwanz verschlingt
+Du willst mich aufhalten? Ganz bestimmt
+Ich bin ein Mann, du Kind
+Und es macht immer
+Klick-Klack-Klick-Klack Boom!
+Ich bin Raps Charles Bronson
+Gebt euch keine Mühe, für mich seid ihr alles Bonzen
+Es ist Untergrund, Rap-Katakomben
+Ich werf' auf deinen Vater Bomben
+Und er hört
+Klick-Klack-Klick-Klack Boom!
+Weil bei euch wieder nix geht
+Ich bin dieser Junge der auch Mädchen ins Gesicht schlägt
+Ich will kein Feature und ich scheiße auf dein Mixtape
+Ich lieb es, wenn es klickt, ey
+Klick-Klack-Klick-Klack Boom!
+[Hook]
+Das ganze Geld da draußen werde ich mir wirklich nehmen
+Was denkst du, wer du bist, du redest nicht mit irgendwem
+Junge, mach die Augen auf und dann wirst du's sehen
+Klick-Klack-Klick-Klack Boom!
+Ich bin Kurt Cobain
+Ich weiß nicht was morgen ist, aber es wird schon gehen
+Ersguterjunge, Universal, Urban-Fame
+Junge streng dich etwas an und du wirst verstehen
+Klick-Klack-Klick-Klack Boom!
+Ich bin Kurt Cobain
+[Part 3]
+Es ist Kurt Cobain, Knarre an die Schläfe
+Ich sitze am Kopf des Tisch und halte eine Rede
+Die Leute sind jetzt mein Album am empfehlen
+Ich will alle eure Seelen
+Es macht Klick-Klack-Klick-Klack Boom!
+Und du musst dich dann verstecken
+Du hast kein' Trend gesetzt, außer wie mein Schwanz zu rappen
+Mein altes Album läuft, alle fangen an zu backen
+Niemand kann dich retten, Homie
+Es macht Klick-Klack-Klick-Klack Boom!
+Und alle werden kreidebleich
+Junge, und ich komm in deine Stadt wie Michael Knight
+Sonny Black, der beste Rapper seiner Zeit
+Es ist leicht wie ein mal eins
+Klick-Klack-Klick-Klack Boom!
+Oh ja, ich warne dich, komm her
+Und die Paparazzi fahren dem Wagen hinterher
+Sagt mir wen ihr wollt: bin Laden oder Fler?
+Guck, ich lade das Gewehr
+Es macht Klick-Klack-Klick-Klack Boom!
+[Hook]
+Das ganze Geld da draußen werde ich mir wirklich nehmen
+Was denkst du, wer du bist, du redest nicht mit irgendwem
+Junge, mach die Augen auf und dann wirst du's sehen
+Klick-Klack-Klick-Klack Boom!
+Ich bin Kurt Cobain
+Ich weiß nicht was morgen ist, aber es wird schon gehen
+Ersguterjunge, Universal, Urban-Fame
+Junge streng dich etwas an und du wirst verstehen
+Klick-Klack-Klick-Klack Boom!
+Ich bin Kurt Cobain</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -730,9 +1124,84 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[Part 1]Es ist Carlo Cokxxx Nutten ihr kennt den StyleSo hört sich´s an immer wenn ein Gangster weintManche Menschen denken nur an den ProfitAber hör mich an denn ich hab den Blues für die StreetMama was hab ich nur angestellt?Was nützt mir jetzt das Auto und das ganze Geld?Es ist immer noch kalt und nicht bequem hierAber Hauptsache die Alphajacke steht mirIch bin Gee dass ist Teil meiner selbstIch verdien vom Bordstein bis zur Skyline mein GeldEs war alles nur verschenkte ZeitSo hört sich's an immer wenn ein Gangster weintIch hoffe dass ich irgendwann im Paradies lebeUnd was du hier siehst ist keine KrokodilsträneIch bin ein Sündenbock doch ich bin nicht Schuld JungsDer Gangster weint und die Stimmung auf dem 0-PunktDenn es gibt keinen dem der Gangster vertrautEs ist nachts ich geh raus und senke mein HauptUnd schon wieder, wieder bin ich im VisierUnd schon wieder, wieder werd ich indiziertFrüher schrieb ich meine Raps in der PauseHeute bin ich immer so weit weg von zu HauseDu sagst "Auf in den Kampf" , doch ich kämpf bereitsSo hört sich's an immer wenn ein Gangster weint
-[Hook]Mama guck ich ertrage den SchmerzIhr glaubt es nicht , doch auch Gangster haben ein HerzVon jetzt bis in die UnendlichkeitSo hört sich's an immer wenn ein Gangster weintMama guck ich bin wahnsinnig müdeIhr glaubt es nicht , doch auch Gangster haben GefühleGott ist groß und ich bin längst bereitSo hört sich's an immer wenn ein Gangster weint[Part 2]Es ist schon OK denn ich bin endlich reichSo hört sich´s an immer wenn ein Gangster weintUnd ich bin traurig jetztNicht nur die Frau ist wegUnd was mir bleibt ist nicht viel mehr als ein Haufen DreckMama sagt "Was hab ich bloß gemacht"Ich habe immer noch den Sound für den Hof im KnastMama ich denke nach wenn ich in der Zelle sitzWarum sagen Alle draußen zu mir Terrorist ?All die Rapper warten draußen auf ihr FeatureIch scheiß auf euch alle und ich rauche eine ShishaDas kann noch lange nicht das Ende seinSo hört sich's an immer wenn ein Gangster weintIch wusste immer schon dass mich das nicht glücklich machtUnd nur dumme Schlampen nehmen auf dem Rücksitz platzEins kannst du dir merken : Gangster sind einsamManchmal seh ich Leute an meinem Fenster vorbei fahrnHier draußen ist es für den Teufel nicht schwerDann nimmt er meine Asche und verstreut sie im MeerYeahIch bin der Typ der in der Cordon Sport träumtManchmal weinen auch Gangster mein SportsfreundIch denk an all diese Dinge die passiert sindMan verurteilt mich weil ich tätowiert binIch hoffe dass mir meine Fans verzeihnSo hört sich's an immer wenn ein Gangster weint
-[Hook]Mama guck ich ertrage den SchmerzIhr glaubt es nicht , doch auch Gangster haben ein HerzVon jetzt bis in die UnendlichkeitSo hört sich's an immer wenn ein Gangster weintMama guck ich bin wahnsinnig müdeIhr glaubt es nicht , doch auch Gangster haben GefühleGott ist groß und ich bin längst bereitSo hört sich's an immer wenn ein Gangster weintMama guck ich ertrage den SchmerzIhr glaubt es nicht , doch auch Gangster haben ein HerzVon jetzt bis in die UnendlichkeitSo hört sich's an immer wenn ein Gangster weintMama guck ich bin wahnsinnig müdeIhr glaubt es nicht , doch auch Gangster haben GefühleGott ist groß und ich bin längst bereitSo hört sich's an immer wenn ein Gangster weint</t>
+          <t>[Part 1]
+Es ist Carlo Cokxxx Nutten ihr kennt den Style
+So hört sich´s an immer wenn ein Gangster weint
+Manche Menschen denken nur an den Profit
+Aber hör mich an denn ich hab den Blues für die Street
+Mama was hab ich nur angestellt?
+Was nützt mir jetzt das Auto und das ganze Geld?
+Es ist immer noch kalt und nicht bequem hier
+Aber Hauptsache die Alphajacke steht mir
+Ich bin Gee dass ist Teil meiner selbst
+Ich verdien vom Bordstein bis zur Skyline mein Geld
+Es war alles nur verschenkte Zeit
+So hört sich's an immer wenn ein Gangster weint
+Ich hoffe dass ich irgendwann im Paradies lebe
+Und was du hier siehst ist keine Krokodilsträne
+Ich bin ein Sündenbock doch ich bin nicht Schuld Jungs
+Der Gangster weint und die Stimmung auf dem 0-Punkt
+Denn es gibt keinen dem der Gangster vertraut
+Es ist nachts ich geh raus und senke mein Haupt
+Und schon wieder, wieder bin ich im Visier
+Und schon wieder, wieder werd ich indiziert
+Früher schrieb ich meine Raps in der Pause
+Heute bin ich immer so weit weg von zu Hause
+Du sagst "Auf in den Kampf" , doch ich kämpf bereits
+So hört sich's an immer wenn ein Gangster weint
+[Hook]
+Mama guck ich ertrage den Schmerz
+Ihr glaubt es nicht , doch auch Gangster haben ein Herz
+Von jetzt bis in die Unendlichkeit
+So hört sich's an immer wenn ein Gangster weint
+Mama guck ich bin wahnsinnig müde
+Ihr glaubt es nicht , doch auch Gangster haben Gefühle
+Gott ist groß und ich bin längst bereit
+So hört sich's an immer wenn ein Gangster weint
+[Part 2]
+Es ist schon OK denn ich bin endlich reich
+So hört sich´s an immer wenn ein Gangster weint
+Und ich bin traurig jetzt
+Nicht nur die Frau ist weg
+Und was mir bleibt ist nicht viel mehr als ein Haufen Dreck
+Mama sagt "Was hab ich bloß gemacht"
+Ich habe immer noch den Sound für den Hof im Knast
+Mama ich denke nach wenn ich in der Zelle sitz
+Warum sagen Alle draußen zu mir Terrorist ?
+All die Rapper warten draußen auf ihr Feature
+Ich scheiß auf euch alle und ich rauche eine Shisha
+Das kann noch lange nicht das Ende sein
+So hört sich's an immer wenn ein Gangster weint
+Ich wusste immer schon dass mich das nicht glücklich macht
+Und nur dumme Schlampen nehmen auf dem Rücksitz platz
+Eins kannst du dir merken : Gangster sind einsam
+Manchmal seh ich Leute an meinem Fenster vorbei fahrn
+Hier draußen ist es für den Teufel nicht schwer
+Dann nimmt er meine Asche und verstreut sie im Meer
+Yeah
+Ich bin der Typ der in der Cordon Sport träumt
+Manchmal weinen auch Gangster mein Sportsfreund
+Ich denk an all diese Dinge die passiert sind
+Man verurteilt mich weil ich tätowiert bin
+Ich hoffe dass mir meine Fans verzeihn
+So hört sich's an immer wenn ein Gangster weint
+[Hook]
+Mama guck ich ertrage den Schmerz
+Ihr glaubt es nicht , doch auch Gangster haben ein Herz
+Von jetzt bis in die Unendlichkeit
+So hört sich's an immer wenn ein Gangster weint
+Mama guck ich bin wahnsinnig müde
+Ihr glaubt es nicht , doch auch Gangster haben Gefühle
+Gott ist groß und ich bin längst bereit
+So hört sich's an immer wenn ein Gangster weint
+Mama guck ich ertrage den Schmerz
+Ihr glaubt es nicht , doch auch Gangster haben ein Herz
+Von jetzt bis in die Unendlichkeit
+So hört sich's an immer wenn ein Gangster weint
+Mama guck ich bin wahnsinnig müde
+Ihr glaubt es nicht , doch auch Gangster haben Gefühle
+Gott ist groß und ich bin längst bereit
+So hört sich's an immer wenn ein Gangster weint</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -784,8 +1253,68 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[Part 1]YeahIch bin müde, müde von dem ganzen DreckHeute frag ich schon nicht mehr, kann ich irgendwann ins BettBushido - so werd' ich im Volksmund genanntIch bin dieser Junge, der euch erst mit Gold bumstUnd dann muss ich weiter von Termin zu TerminUnd ich bleibe hart, denn Berlin ist BerlinIch mache Beats ich, schreibe Raps, ich bin der BossErsguterjunge und ich lerne immer nochDas Handy klingelt die Groupies hängen an den EiernUnd ich bin mich selbst am fragen, wann ich endlich wieder frei habMontag bis Freitag, am Wochenende auchKeiner kann mir sagen halten meine Knochen denn das ausIch bin ein Mensch wie du und ichEin Mensch der in die Zukunft blicktEs ist einfach hart, wenn man der coolste istIhr wollt mich wegschicken, Jungs, aber wohinÜber Workaholic, ich kann schlafen, wenn ich tot binIch bin am schuften 24/7 manMache Dinge, die man sich nicht einmal vorstellen kannBis die Augen zufallen schreib' ich Wort für WortIm Studio schlaf' ich ein, ein in meiner Cordon Sport[Hook]Ich bin müde, müde von der ganzen ScheißeBis jetzt hab' ich viel erlebt, doch es ist 'ne lange ReiseBei uns regelt man die Sachen auf ne andre WeiseIch bin im Studio und schlaf' ein in meiner Cordon SportIch bin müde, müde von dem ganzen KramGestern war ich noch ein Niemand, heute bin ich angesagtGuck' mich an, wer ich bin, ich bin ein Mann der TatIch bin auf Tour und schlafe ein in meiner Cordon Sport
-[Part 2]Ich bin müde, müde von dem ganzen MistIch muss fleißig sein, denn so ist ein Mann wie ichBushido - verdammt so werd' ich genanntIch mache jetzt mein neues Album fertig und dannMuss ich weiter von Date zu DateGeschäftsgespräche ohne Ende, Base-FlatrateAlle Kids da draußen hören meine Alben wiederIch sitze im Cafe und im Hintergrund läuft Al JazeeraJunge nichts passiert gegen meinen Willen, ich bin SuperstarNächstes Jahr dreh' ich einen Film, Mic rausIch verwirkliche jetzt mein TraumUnd kann nicht einfach sagen ich will jetzt TimeoutHabe keinen freien Tag habe, leider keinen SchlafSchau' in den Spiegel, ich trage einen DreitagebartDas ist mein 7er, das hier ist kein VolkswagenNenn' mir einfach Rapper, die in Deutschland zweimal Gold habenWas soll ich sagen, ich hab so viel zu tunMerkt euch, ihr habt es mit einem Profi zu tunEs geht los, wieder, Boom, von Ort zu OrtAuf Tour schlaf' ich ein, ein in meiner Cordon Sport[Hook]Ich bin müde, müde von der ganzen ScheißeBis jetzt hab' ich viel erlebt, doch es ist 'ne lange ReiseBei uns regelt man die Sachen auf ne andre WeiseIch bin im Studio und schlaf' ein in meiner Cordon SportIch bin müde, müde von dem ganzen KramGestern war ich noch ein Niemand, heute bin ich angesagtGuck' mich an, wer ich bin, ich bin ein Mann der TatIch bin auf Tour und schlafe ein in meiner Cordon Sport</t>
+          <t>[Part 1]
+Yeah
+Ich bin müde, müde von dem ganzen Dreck
+Heute frag ich schon nicht mehr, kann ich irgendwann ins Bett
+Bushido - so werd' ich im Volksmund genannt
+Ich bin dieser Junge, der euch erst mit Gold bumst
+Und dann muss ich weiter von Termin zu Termin
+Und ich bleibe hart, denn Berlin ist Berlin
+Ich mache Beats ich, schreibe Raps, ich bin der Boss
+Ersguterjunge und ich lerne immer noch
+Das Handy klingelt die Groupies hängen an den Eiern
+Und ich bin mich selbst am fragen, wann ich endlich wieder frei hab
+Montag bis Freitag, am Wochenende auch
+Keiner kann mir sagen halten meine Knochen denn das aus
+Ich bin ein Mensch wie du und ich
+Ein Mensch der in die Zukunft blickt
+Es ist einfach hart, wenn man der coolste ist
+Ihr wollt mich wegschicken, Jungs, aber wohin
+Über Workaholic, ich kann schlafen, wenn ich tot bin
+Ich bin am schuften 24/7 man
+Mache Dinge, die man sich nicht einmal vorstellen kann
+Bis die Augen zufallen schreib' ich Wort für Wort
+Im Studio schlaf' ich ein, ein in meiner Cordon Sport
+[Hook]
+Ich bin müde, müde von der ganzen Scheiße
+Bis jetzt hab' ich viel erlebt, doch es ist 'ne lange Reise
+Bei uns regelt man die Sachen auf ne andre Weise
+Ich bin im Studio und schlaf' ein in meiner Cordon Sport
+Ich bin müde, müde von dem ganzen Kram
+Gestern war ich noch ein Niemand, heute bin ich angesagt
+Guck' mich an, wer ich bin, ich bin ein Mann der Tat
+Ich bin auf Tour und schlafe ein in meiner Cordon Sport
+[Part 2]
+Ich bin müde, müde von dem ganzen Mist
+Ich muss fleißig sein, denn so ist ein Mann wie ich
+Bushido - verdammt so werd' ich genannt
+Ich mache jetzt mein neues Album fertig und dann
+Muss ich weiter von Date zu Date
+Geschäftsgespräche ohne Ende, Base-Flatrate
+Alle Kids da draußen hören meine Alben wieder
+Ich sitze im Cafe und im Hintergrund läuft Al Jazeera
+Junge nichts passiert gegen meinen Willen, ich bin Superstar
+Nächstes Jahr dreh' ich einen Film, Mic raus
+Ich verwirkliche jetzt mein Traum
+Und kann nicht einfach sagen ich will jetzt Timeout
+Habe keinen freien Tag habe, leider keinen Schlaf
+Schau' in den Spiegel, ich trage einen Dreitagebart
+Das ist mein 7er, das hier ist kein Volkswagen
+Nenn' mir einfach Rapper, die in Deutschland zweimal Gold haben
+Was soll ich sagen, ich hab so viel zu tun
+Merkt euch, ihr habt es mit einem Profi zu tun
+Es geht los, wieder, Boom, von Ort zu Ort
+Auf Tour schlaf' ich ein, ein in meiner Cordon Sport
+[Hook]
+Ich bin müde, müde von der ganzen Scheiße
+Bis jetzt hab' ich viel erlebt, doch es ist 'ne lange Reise
+Bei uns regelt man die Sachen auf ne andre Weise
+Ich bin im Studio und schlaf' ein in meiner Cordon Sport
+Ich bin müde, müde von dem ganzen Kram
+Gestern war ich noch ein Niemand, heute bin ich angesagt
+Guck' mich an, wer ich bin, ich bin ein Mann der Tat
+Ich bin auf Tour und schlafe ein in meiner Cordon Sport</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -837,9 +1366,91 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[Songtext zu „Hast du was bist du was“][Part 1]Hast du nix, bist du nix, hast du was, bist du wasWer ist sick und krass? Ich komm' aus der dicksten StadtErsguterjunge, wer stürmt die Hitlist?Du kannst leider nicht mehr mit mir chillen, weil du shit bistHör die Hi-Hat, ich sitze im HyattWenn ich will, lass' ich dich jetzt wissen wie das Blei schmecktMeine Ehre ist mir wichtiger als GeldUnd dein Onkel ist für mich der größte Krüppel dieser Welt, yeahIch bin ordinär, jetzt gibt es kein Morgen mehrIch mach die Kohle, keiner von euch Homos ist was wertJunge guck, ich bin 'ne KämpfernaturUnd wie jedes Jahr ist jetzt dieser Gangster auf Tour, yeahMeine Jungs sind nur Leute, die was aus sich machenKümmer dich um jeden Scheiß, doch hier lernst du drauf zu kackenUnd ich scheiß drauf, ob er Jura studiertIch tret' deinem Bruder um vier meinen Fuß in die Nier'n, yeahEndlich kommt jetzt meine Scheiße wieder rausDu willst nach Berlin, seh' ich wie ein Reiseführer aus?Es ist Gangbang, AS MonacoDenn dieser Junge geht nur noch auf Partys im SakkoIch bin maskulin, du bist nur ein WeibsbildUnd du bleibst dieser Typ, der mit seinem Feind chilltGuck her, ich häng' mit Saad und Eko FreshEs ist Sonny Black, Deutscher Rap hat jetzt Pech, yeahJunge, denn dieser Hochmut kommt vor dem FallNächstes Jahr bist du Penner, vielleicht wohnst du schon im WaldSieh, es knallt, und ich scheiße auf dein MagazinIch beförder' dich jetzt auf direktem Weg ins ParadiesIch hab 'ne große Fresse so wie ein FlusspferdDie Nutte will nach Hause und ich zeig' ihr wann der Bus fährtAuf meinem Schwanz ist von deiner Mama LippenstiftHast du was, bist du was, hast du nix, bist du nix
-[Hook]Hast du was, bist du was, hast du nix, bist du nixDu kannst nichts gegen mich machen, denn ich ficke dichDu kannst nichts gegen mich machen, denn ich bin zu krassHast du nix, bist du nix, hast du was, bist du wasHast du was, bist du was, hast du nix, bist du nixDu kannst nichts gegen mich machen, denn ich ficke dichDu kannst nichts gegen mich machen, denn ich bin zu krassHast du nix, bist du nix, hast du was, bist du was[Part 2]Hast du nix, bist du nix, hast du was, bist du wasSag mir: Wer hat den geilsten Rap in der City, Spast?Ich rappe immer noch mein Album auf dem KorridorLos Junge, stell mir deine krassen Homies vorIch bin für deutschen Rap sowas wie ein SchimmelpilzMädchen, ruf mich an, wenn du auf den Pimmel willstSonny Black, scheiß drauf was die Hure rapptErsguterjunge, das hier ist kein JugendtreffDu Rattenkind, Hauptsache die Kasse stimmtHeute weiß ich ganz genau, wer jetzt meine Atzen sindEs ist Blaues Licht, Rambo No. 3Deine Mutter ist zuhause und hört Mambo Number FiveStör mich nicht, weil ich Migräne hab', mein Schädel brummtStör mich nicht, wenn ich jede Nacht dein Mädel bums'Junge, deine krasse Clique ist in PforzheimIch ficke euch sofort? Nein, mitten auf dem BordsteinLauf um den Block, ich verkaufe den StoffJetzt kommt der Electro-Ghetto-Sound aus der BoxLord of the Rings, Mr. Cordon ist KingIch komme nur auf den Centercourt und gewinn'Du siehst schick aus, undercover kickdownSag mir: Was willst du Krüppel machen, wenn die Kick bounced?S.O.N.N, sag mir: Wer macht Gangbang?Ich ficke deine Atzenbrüder, also besser renn wennIch komme, Junge, das bin ich und nicht die andernDu willst etwas sagen, aber geh und piss die Wand anEs ist die Pumpgun, du bist mein ZöglingAlle Schlampen wollen mit mir ficken weil ich schön binEs mag blöd kling'n, ich bin crazy, sexy, coolMeine alten Feinde roll'n ihr ganzes Leben in 'nem StuhlEigentlich wollt' ich nichts verraten: ich verticke TripsHast du was, bist du was, hast du nix, bist du nix
-[Hook]Hast du was, bist du was, hast du nix, bist du nixDu kannst nichts gegen mich machen, denn ich ficke dichDu kannst nichts gegen mich machen, denn ich bin zu krassHast du nix, bist du nix, hast du was, bist du wasHast du was, bist du was, hast du nix, bist du nixDu kannst nichts gegen mich machen, denn ich ficke dichDu kannst nichts gegen mich machen, denn ich bin zu krassHast du nix, bist du nix, hast du was, bist du was</t>
+          <t>[Songtext zu „Hast du was bist du was“]
+[Part 1]
+Hast du nix, bist du nix, hast du was, bist du was
+Wer ist sick und krass? Ich komm' aus der dicksten Stadt
+Ersguterjunge, wer stürmt die Hitlist?
+Du kannst leider nicht mehr mit mir chillen, weil du shit bist
+Hör die Hi-Hat, ich sitze im Hyatt
+Wenn ich will, lass' ich dich jetzt wissen wie das Blei schmeckt
+Meine Ehre ist mir wichtiger als Geld
+Und dein Onkel ist für mich der größte Krüppel dieser Welt, yeah
+Ich bin ordinär, jetzt gibt es kein Morgen mehr
+Ich mach die Kohle, keiner von euch Homos ist was wert
+Junge guck, ich bin 'ne Kämpfernatur
+Und wie jedes Jahr ist jetzt dieser Gangster auf Tour, yeah
+Meine Jungs sind nur Leute, die was aus sich machen
+Kümmer dich um jeden Scheiß, doch hier lernst du drauf zu kacken
+Und ich scheiß drauf, ob er Jura studiert
+Ich tret' deinem Bruder um vier meinen Fuß in die Nier'n, yeah
+Endlich kommt jetzt meine Scheiße wieder raus
+Du willst nach Berlin, seh' ich wie ein Reiseführer aus?
+Es ist Gangbang,AS Monaco
+Denn dieser Junge geht nur noch auf Partys im Sakko
+Ich bin maskulin, du bist nur ein Weibsbild
+Und du bleibst dieser Typ, der mit seinem Feind chillt
+Guck her, ich häng' mit Saad und Eko Fresh
+Es ist Sonny Black, Deutscher Rap hat jetzt Pech, yeah
+Junge, denn dieser Hochmut kommt vor dem Fall
+Nächstes Jahr bist du Penner, vielleicht wohnst du schon im Wald
+Sieh, es knallt, und ich scheiße auf dein Magazin
+Ich beförder' dich jetzt auf direktem Weg ins Paradies
+Ich hab 'ne große Fresse so wie ein Flusspferd
+Die Nutte will nach Hause und ich zeig' ihr wann der Bus fährt
+Auf meinem Schwanz ist von deiner Mama Lippenstift
+Hast du was, bist du was, hast du nix, bist du nix
+[Hook]
+Hast du was, bist du was, hast du nix, bist du nix
+Du kannst nichts gegen mich machen, denn ich ficke dich
+Du kannst nichts gegen mich machen, denn ich bin zu krass
+Hast du nix, bist du nix, hast du was, bist du was
+Hast du was, bist du was, hast du nix, bist du nix
+Du kannst nichts gegen mich machen, denn ich ficke dich
+Du kannst nichts gegen mich machen, denn ich bin zu krass
+Hast du nix, bist du nix, hast du was, bist du was
+[Part 2]
+Hast du nix, bist du nix, hast du was, bist du was
+Sag mir: Wer hat den geilsten Rap in der City, Spast?
+Ich rappe immer noch mein Album auf dem Korridor
+Los Junge, stell mir deine krassen Homies vor
+Ich bin für deutschen Rap sowas wie ein Schimmelpilz
+Mädchen, ruf mich an, wenn du auf den Pimmel willst
+Sonny Black, scheiß drauf was die Hure rappt
+Ersguterjunge, das hier ist kein Jugendtreff
+Du Rattenkind, Hauptsache die Kasse stimmt
+Heute weiß ich ganz genau, wer jetzt meine Atzen sind
+Es ist Blaues Licht, Rambo No. 3
+Deine Mutter ist zuhause und hört Mambo Number Five
+Stör mich nicht, weil ich Migräne hab', mein Schädel brummt
+Stör mich nicht, wenn ich jede Nacht dein Mädel bums'
+Junge, deine krasse Clique ist in Pforzheim
+Ich ficke euch sofort? Nein, mitten auf dem Bordstein
+Lauf um den Block, ich verkaufe den Stoff
+Jetzt kommt der Electro-Ghetto-Sound aus der Box
+Lord of the Rings, Mr. Cordon ist King
+Ich komme nur auf den Centercourt und gewinn'
+Du siehst schick aus, undercover kickdown
+Sag mir: Was willst du Krüppel machen, wenn die Kick bounced?
+S.O.N.N, sag mir: Wer macht Gangbang?
+Ich ficke deine Atzenbrüder, also besser renn wenn
+Ich komme, Junge, das bin ich und nicht die andern
+Du willst etwas sagen, aber geh und piss die Wand an
+Es ist die Pumpgun, du bist mein Zögling
+Alle Schlampen wollen mit mir ficken weil ich schön bin
+Es mag blöd kling'n, ich bin crazy, sexy, cool
+Meine alten Feinde roll'n ihr ganzes Leben in 'nem Stuhl
+Eigentlich wollt' ich nichts verraten: ich verticke Trips
+Hast du was, bist du was, hast du nix, bist du nix
+[Hook]
+Hast du was, bist du was, hast du nix, bist du nix
+Du kannst nichts gegen mich machen, denn ich ficke dich
+Du kannst nichts gegen mich machen, denn ich bin zu krass
+Hast du nix, bist du nix, hast du was, bist du was
+Hast du was, bist du was, hast du nix, bist du nix
+Du kannst nichts gegen mich machen, denn ich ficke dich
+Du kannst nichts gegen mich machen, denn ich bin zu krass
+Hast du nix, bist du nix, hast du was, bist du was</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -891,9 +1502,75 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[Part 1]Vollkontakt, guck mich an, was ist jetzt, wer ist coolAlphatier Sonny Black, wer zieht Koks in der SchoolJunge komm, denn ich bin der mit dem harten SchwanzIch mach jetzt ernst und bring Rap wieder ins VaterlandIch bin King, von der Street akzeptiertGuck, wie jeder Rapper auf meine Beats masturbiertEs is' Nemesis, wir sind die Good boysKommt ins Nightlife, kommt, ich bespuck euchLass den Heckmeck, ich bin back KekIch sag einmal Hurensohn und ihr seid alle BackpackDu willst jetzt weg mach doch du SchwachkopfDoch ich bleibe immer diese Junge, der sich in der Nacht boxtEs ist Breitling, scheiß auf deine Aldi-UhrAuf meinem nächstem Cover halt ich das ExcaliburDas ist Picaldi pur, oh ja, Ich werde reichIch bin nicht nett und ich scheiße auch auf ErcandizeDu Zigeuner, ich bumse deinen BeatEure Mütter wollen von mir Unterhalt beziehnRunter auf die Streets, hol mir deinen BossEs ist Saad der dich boxt, wer will Battle on the Rocks yeahIch schreibe immer noch mein Text im Polo-ShirtMic Check, ich entscheide, wann du Homo stirbstDu bist ein Akrobat, jetzt geh zum Aggro MarktErsguterJunge is der Schwanz in Aggros Arsch
-[Hook]Oldschool ist out und ich mache, was ich willDas ist Alphatier, Gangbang, du hängst mir am SchwanzMeine Stadt, mein Bezirk, scheiß auf eure SkillsIch ficke jetzt die Disco weil ein Gangster nicht tanzt, yeahOldschool ist out und ich mache, was ich willDas ist Alphatier, Gangbang, du hängst mir am SchwanzMeine Stadt, mein Bezirk, scheiß auf eure SkillsIch ficke jetzt die Disco weil ein Gangster nicht tanzt, yeah[Part 2]Arroganz, immer der gleiche Shit in der NachtAlphatier Sonny Black, für mich bist du ein Spast, yeahJede Bitch flieht, scheiß auf deine Shit BeatsEs ist Tempelhof ich box euch in die 60sAuf einmal traut sich deine Clique nicht mehr raus, yeahIhr wollt Romantik, doch ich ficke mit der FaustDie Stricher sind jetzt out, ihr seit alle gleich schwulWas wollt ihr noch, yeah, Rap ist jetzt mein StuhlDu brauchst Gleitcreme denn du bist ein schwuler MannTefla und Jaleel sind nur wegen mir im RuhestandIhr Missgeburten könnt's noch immer nicht verstehenIhr wollt batteln, meine Antwort: "Kreuzt die Finger für ein 'W'"Ich sag dir eins, deine Mama ist ne SpaßbremseIch krieg 'nen Steifen wenn ich nur an ihren Arsch denkeMach dich peinlich Kek, Airmax MuzikIch hab kein Respekt, hört drauf, wie ich Fler fick zum BeatGuck dich an, du bist irgend so ein LeopoldWenn ich will, geh ich einfach für mein Ego GoldSei weiter Underground und brenne dein SamplerIch hab dir eine Chance gegeben, du rappst wie ein WankstaWeil du old bist, scheiß ich auf die WeltIch ficke auch dein Outfit und scheiße auf Juelz, yeahDu und deine Jungs sind cool in deinem krassen DorfCordon Sport Massenmord, jetzt ist Krieg ab sofort
-[Hook]Oldschool ist out und ich mache, was ich willDas ist Alphatier, Gangbang, du hängst mir am SchwanzMeine Stadt, mein Bezirk, scheiß auf eure SkillsIch ficke jetzt die Disco weil ein Gangster nicht tanzt, yeahOldschool ist out und ich mache, was ich willDas ist Alphatier, Gangbang, du hängst mir am SchwanzMeine Stadt, mein Bezirk, scheiß auf eure SkillsIch ficke jetzt die Disco weil ein Gangster nicht tanzt, yeahOldschool ist out und ich mache, was ich willDas ist Alphatier, Gangbang, du hängst mir am SchwanzMeine Stadt, mein Bezirk, scheiß auf eure SkillsIch ficke jetzt die Disco weil ein Gangster nicht tanzt, yeahOldschool ist out und ich mache, was ich willDas ist Alphatier, Gangbang, du hängst mir am SchwanzMeine Stadt, mein Bezirk, scheiß auf eure SkillsIch ficke jetzt die Disco weil ein Gangster nicht tanzt, yeah</t>
+          <t>[Part 1]
+Vollkontakt, guck mich an, was ist jetzt, wer ist cool
+Alphatier Sonny Black, wer zieht Koks in der School
+Junge komm, denn ich bin der mit dem harten SchwanzIch mach jetzt ernst und bring Rap wieder ins Vaterland
+Ich bin King, von der Street akzeptiert
+Guck, wie jeder Rapper auf meine Beats masturbiert
+Es is' Nemesis, wir sind die Good boys
+Kommt ins Nightlife, kommt, ich bespuck euch
+Lass den Heckmeck, ich bin back Kek
+Ich sag einmal Hurensohn und ihr seid alle Backpack
+Du willst jetzt weg mach doch du Schwachkopf
+Doch ich bleibe immer diese Junge, der sich in der Nacht boxt
+Es ist Breitling, scheiß auf deine Aldi-Uhr
+Auf meinem nächstem Cover halt ich das Excalibur
+Das ist Picaldi pur, oh ja, Ich werde reich
+Ich bin nicht nett und ich scheiße auch auf Ercandize
+Du Zigeuner, ich bumse deinen Beat
+Eure Mütter wollen von mir Unterhalt beziehn
+Runter auf die Streets, hol mir deinen Boss
+Es ist Saad der dich boxt, wer will Battle on the Rocks yeah
+Ich schreibe immer noch mein Text im Polo-Shirt
+Mic Check, ich entscheide, wann du Homo stirbst
+Du bist ein Akrobat, jetzt geh zum Aggro Markt
+ErsguterJunge is der Schwanz in Aggros Arsch
+[Hook]
+Oldschool ist out und ich mache, was ich will
+Das ist Alphatier, Gangbang, du hängst mir am Schwanz
+Meine Stadt, mein Bezirk, scheiß auf eure SkillsIch ficke jetzt die Disco weil ein Gangster nicht tanzt, yeah
+Oldschool ist out und ich mache, was ich will
+Das ist Alphatier, Gangbang, du hängst mir am Schwanz
+Meine Stadt, mein Bezirk, scheiß auf eure SkillsIch ficke jetzt die Disco weil ein Gangster nicht tanzt, yeah
+[Part 2]
+Arroganz, immer der gleiche Shit in der Nacht
+Alphatier Sonny Black, für mich bist du ein Spast, yeah
+Jede Bitch flieht, scheiß auf deine Shit Beats
+Es ist Tempelhof ich box euch in die 60s
+Auf einmal traut sich deine Clique nicht mehr raus, yeah
+Ihr wollt Romantik, doch ich ficke mit der Faust
+Die Stricher sind jetzt out, ihr seit alle gleich schwul
+Was wollt ihr noch, yeah, Rap ist jetzt mein Stuhl
+Du brauchst Gleitcreme denn du bist ein schwuler Mann
+Tefla und Jaleel sind nur wegen mir im Ruhestand
+Ihr Missgeburten könnt's noch immer nicht verstehen
+Ihr wollt batteln, meine Antwort: "Kreuzt die Finger für ein 'W'"
+Ich sag dir eins, deine Mama ist ne Spaßbremse
+Ich krieg 'nen Steifen wenn ich nur an ihren Arsch denke
+Mach dich peinlich Kek, Airmax Muzik
+Ich hab kein Respekt, hört drauf, wie ich Fler fick zum Beat
+Guck dich an, du bist irgend so ein Leopold
+Wenn ich will, geh ich einfach für mein Ego Gold
+Sei weiter Underground und brenne dein Sampler
+Ich hab dir eine Chance gegeben, du rappst wie ein Wanksta
+Weil du old bist, scheiß ich auf die Welt
+Ich ficke auch dein Outfit und scheiße auf Juelz, yeah
+Du und deine Jungs sind cool in deinem krassen Dorf
+Cordon Sport Massenmord, jetzt ist Krieg ab sofort
+[Hook]
+Oldschool ist out und ich mache, was ich will
+Das ist Alphatier, Gangbang, du hängst mir am Schwanz
+Meine Stadt, mein Bezirk, scheiß auf eure SkillsIch ficke jetzt die Disco weil ein Gangster nicht tanzt, yeah
+Oldschool ist out und ich mache, was ich will
+Das ist Alphatier, Gangbang, du hängst mir am Schwanz
+Meine Stadt, mein Bezirk, scheiß auf eure SkillsIch ficke jetzt die Disco weil ein Gangster nicht tanzt, yeah
+Oldschool ist out und ich mache, was ich will
+Das ist Alphatier, Gangbang, du hängst mir am Schwanz
+Meine Stadt, mein Bezirk, scheiß auf eure SkillsIch ficke jetzt die Disco weil ein Gangster nicht tanzt, yeah
+Oldschool ist out und ich mache, was ich will
+Das ist Alphatier, Gangbang, du hängst mir am Schwanz
+Meine Stadt, mein Bezirk, scheiß auf eure SkillsIch ficke jetzt die Disco weil ein Gangster nicht tanzt, yeah</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -945,9 +1622,90 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[Part 1]Es ist Bushido Bloodsport ich spreche ein MachtwortEgal was ihr sagt ich ruf immer fuck TorchIch komme im BMW du kommst in nem kack FordIch will segeln denn ich interessiere mich für yachtsportEs ist Österreich guck ich war im Knast dortIch hänge mit den Gees du hängst mit dem spaßt korsIch komme auf die bühne jedes Mädchen macht boahIhr habt keine Chance, ihr Süßen macht euch was vorHertha BSC Berlin, wir machen das TorDu Schwuchtel, jeden Montag singst du in 'nem BachchorJeder quatscht mich voll, Junge, ich bin fast OhrGuck ich bin der Pate und köpfe dein PrachthorseUnd ich lege deine Reste in ne BackformIch bin ein Osamafreund und denke du kackst ab GeorgeEs ist krasscore ich begeh' um acht MordErsguterjunge ist Bushido Bloodsport[Hook]Bushido, Bloodsport, Van Damme Frank DuxWas hat Gott gedacht als er diesen mensch schufGuck der Junge leider ist auf deinem Hemd BlutEs macht Klick klack klick klack bang BumBushido, Bloodsport, Franke Dux, Van DammIch bin immer noch der junge mit der PumpgunDeine Kifferfreunde zünden sich nen Blunt anEs macht klick klack klick klack bam bam
-[Part 2]Es ist Bushido Bloodsport siehst du dieses SchlachtohrIhr verbringt den Sonntag immer noch in meinem HassboardEs ist Tempelhof, ich bin in meiner Stadt LordUnd die Kick bounced spürst du diesen Bass, yoahIch geh wieder Gold, es kommt mir wie ein Klacks vorUnd überrolle euch so ähnlich wie ein TraktorDamals schon als Kind war ich im kanakcourtZu mir passt der Terminator, zu dir passt OrkHörst du nicht wie sich in dein Gehirn der Takt bohrtDu denkst du bist ein Player doch kriegst jede Nacht KorbGuck wie deine Freundin hier an meinem Sack forschtEs gibt keinen Menschen, der sich um euer Pack sorgtDu bist nur der Typ der auf der Straße lang schnorrtIch bin wie Captain Hook der sich seinen Schatz borgtEs ist die die Axtforce ich begeh' um acht MordErsguterjunge ist Bushido Bloodsport[Hook]Bushido, Bloodsport, Van Damme Frank DuxWas hat Gott gedacht als er diesen mensch schufGuck der Junge leider ist auf deinem Hemd BlutEs macht Klick klack klick klack bang BumBushido, Bloodsport, Franke Dux, Van DammIch bin immer noch der junge mit der PumpgunDeine Kifferfreunde zünden sich nen Blunt anEs macht klick klack klick klack bam bam
-[Part 3]Es ist Bushido Bloodsport jetzt ist deine Kraft fortIch bin Tyrannosaurus du ein kleiner RaptorMeine Segel stehen immer Richtung BackbordDu Penner wohnst im Wald und siehst an jedem Platz MoorDu bist ein krasser Fan der nur auf meinem Dach horchtIch rapp nicht Englisch und weiß nicht was du hast, DawgDu bist hundemüde und du kommst dir schlapp vorIch bin dieser Junge, der mit deinem Schatz calltIm Gefängnis war es kalt bis ich fast frorDu fliegst nach Amiland, ich habe kein PassportEs ist mein Architekt, der einen Palast formtEin gemachter Mann, Berlin ist ein MachtortDu gehst ins Internet auf der Suche nach moreUnd dein Leben ist der zweite Teil von "Das Dorf"Du bist ein Klapperstorch, ich begeh' um acht MordErsguterjunge ist Bushido Bloodsport[Hook]Bushido, Bloodsport, Van Damme Frank DuxWas hat Gott gedacht als er diesen mensch schufGuck der Junge leider ist auf deinem Hemd BlutEs macht Klick klack klick klack bang BumBushido, Bloodsport, Franke Dux, Van DammIch bin immer noch der junge mit der PumpgunDeine Kifferfreunde zünden sich nen Blunt anEs macht klick klack klick klack bam bamBushido, Bloodsport, Van Damme Frank DuxWas hat Gott gedacht als er diesen mensch schufGuck der Junge leider ist auf deinem Hemd BlutEs macht Klick klack klick klack bang BumBushido, Bloodsport, Franke Dux, Van DammIch bin immer noch der junge mit der PumpgunDeine Kifferfreunde zünden sich nen Blunt anEs macht klick klack klick klack bam bam</t>
+          <t>[Part 1]
+Es ist Bushido Bloodsport ich spreche ein MachtwortEgal was ihr sagt ich ruf immer fuck Torch
+Ich komme im BMW du kommst in nem kack Ford
+Ich will segeln denn ich interessiere mich für yachtsport
+Es ist Österreich guck ich war im Knast dort
+Ich hänge mit den Gees du hängst mit dem spaßt kors
+Ich komme auf die bühne jedes Mädchen macht boah
+Ihr habt keine Chance, ihr Süßen macht euch was vor
+Hertha BSC Berlin, wir machen das Tor
+Du Schwuchtel, jeden Montag singst du in 'nem Bachchor
+Jeder quatscht mich voll, Junge, ich bin fast Ohr
+Guck ich bin der Pate und köpfe dein Prachthorse
+Und ich lege deine Reste in ne Backform
+Ich bin ein Osamafreund und denke du kackst ab George
+Es ist krasscore ich begeh' um acht Mord
+Ersguterjunge ist Bushido Bloodsport
+[Hook]
+Bushido, Bloodsport,Van DammeFrank Dux
+Was hat Gott gedacht als er diesen mensch schuf
+Guck der Junge leider ist auf deinem Hemd Blut
+Es macht Klick klack klick klack bang Bum
+Bushido, Bloodsport, Franke Dux, Van Damm
+Ich bin immer noch der junge mit der Pumpgun
+Deine Kifferfreunde zünden sich nen Blunt an
+Es macht klick klack klick klack bam bam
+[Part 2]
+Es ist Bushido Bloodsport siehst du dieses Schlachtohr
+Ihr verbringt den Sonntag immer noch in meinem Hassboard
+Es ist Tempelhof, ich bin in meiner Stadt Lord
+Und die Kick bounced spürst du diesen Bass, yoah
+Ich geh wieder Gold, es kommt mir wie ein Klacks vor
+Und überrolle euch so ähnlich wie ein Traktor
+Damals schon als Kind war ich im kanakcourt
+Zu mir passt der Terminator, zu dir passt Ork
+Hörst du nicht wie sich in dein Gehirn der Takt bohrt
+Du denkst du bist ein Player doch kriegst jede Nacht Korb
+Guck wie deine Freundin hier an meinem Sack forscht
+Es gibt keinen Menschen, der sich um euer Pack sorgt
+Du bist nur der Typ der auf der Straße lang schnorrt
+Ich bin wie Captain Hook der sich seinen Schatz borgt
+Es ist die die Axtforce ich begeh' um acht Mord
+Ersguterjunge ist Bushido Bloodsport
+[Hook]
+Bushido, Bloodsport, Van Damme Frank Dux
+Was hat Gott gedacht als er diesen mensch schuf
+Guck der Junge leider ist auf deinem Hemd Blut
+Es macht Klick klack klick klack bang Bum
+Bushido, Bloodsport, Franke Dux, Van Damm
+Ich bin immer noch der junge mit der Pumpgun
+Deine Kifferfreunde zünden sich nen Blunt an
+Es macht klick klack klick klack bam bam
+[Part 3]
+Es ist Bushido Bloodsport jetzt ist deine Kraft fort
+Ich bin Tyrannosaurus du ein kleiner Raptor
+Meine Segel stehen immer Richtung Backbord
+Du Penner wohnst im Wald und siehst an jedem Platz Moor
+Du bist ein krasser Fan der nur auf meinem Dach horcht
+Ich rapp nicht Englisch und weiß nicht was du hast, DawgDu bist hundemüde und du kommst dir schlapp vor
+Ich bin dieser Junge, der mit deinem Schatz callt
+Im Gefängnis war es kalt bis ich fast fror
+Du fliegst nach Amiland, ich habe kein Passport
+Es ist mein Architekt, der einen Palast formt
+Ein gemachter Mann, Berlin ist ein Machtort
+Du gehst ins Internet auf der Suche nach more
+Und dein Leben ist der zweite Teil von "Das Dorf"
+Du bist ein Klapperstorch, ich begeh' um acht Mord
+Ersguterjunge ist Bushido Bloodsport
+[Hook]
+Bushido, Bloodsport, Van Damme Frank Dux
+Was hat Gott gedacht als er diesen mensch schuf
+Guck der Junge leider ist auf deinem Hemd Blut
+Es macht Klick klack klick klack bang Bum
+Bushido, Bloodsport, Franke Dux, Van Damm
+Ich bin immer noch der junge mit der Pumpgun
+Deine Kifferfreunde zünden sich nen Blunt an
+Es macht klick klack klick klack bam bam
+Bushido, Bloodsport, Van Damme Frank Dux
+Was hat Gott gedacht als er diesen mensch schuf
+Guck der Junge leider ist auf deinem Hemd Blut
+Es macht Klick klack klick klack bang Bum
+Bushido, Bloodsport, Franke Dux, Van Damm
+Ich bin immer noch der junge mit der Pumpgun
+Deine Kifferfreunde zünden sich nen Blunt an
+Es macht klick klack klick klack bam bam</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -999,9 +1757,89 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[Part 1]Tut mir Leid, ihr seid nicht in meiner Liga, JungsTempelhof, Schöneberg, der, der deine Lieder bumstMädels, kommt es gibt Sex on the BeachKing of Kingz und ich schreibe mein Text auf den Beat, yeahSonny Black, jo, back on the streetsGuck', die kleinen Hänger rauchen Backstage das WeedDas hier ist Berlin, City of God, yeahWas Feature, von mir kriegst du ein Korb, yeahAggro, ihr seid für mich nichts als eine Clique SchisserUnd ich hänge ab mit meinen Jungs im Titty TwisterWer hat die allerbesten Alben des Hip HopsMalboro-Big Box, Salto und KickboxRuf mich später an, jetzt bin ich busyEs ist Sex in the city, Sex in the city, yeah[Hook]Leute fragen, was hast du die lange Zeit getriebenScheiß drauf was sie sagt, dieser Mann ist gleich gebliebenSag mir, wer von euch Punks kann mich am Mic besiegen100.000 Fans, die die verdammte Scheiße liebenIch guck sie an, deine Mama weint vor dem SpiegelUnd ich habe krasse Lust die Stange rein-zu-schiebenWarum bist du mit deinem Bekanntenkreis zufriedenEs ist Sex in the City, wie die Schlampen bei Pro7, yeah
-[Part 2]Der Endgegner, Sonny Black, Monte ChristoArme hoch, ich zieh die Nase Koks in der DiscoEs ist Untergrund, los drück auf PlayIch ficke dich, du Student, und dein Abschluss in Yale, yeahMach mal besser keine Welle, du ClownGuck dich um, ja, es ist ein neuer Sheriff in Town, yeahIch bin King Kong, ich ficke dein GehirnDeine Freundin gibt mir einen Kiss auf die Stirn, yeahIch muss schon sagen, ja, ihr Körper ist heißKlar, sie betrügt dich, du trägst Sir Benny Miles, yeahDie Kugel reicht, deine Lichter sind ausIch programmiere eine Kick und sie bounct, yeahSonny, Po-Fick, ich steige in das GhostshipLass den Smoke endlich rein in die OzonschichtDu kannst rappen, doch die Tracks sind zu jiggyEs ist Sex in the city, Sex in the city, yeah[Hook]Leute fragen, was hast du die lange Zeit getriebenScheiß drauf was sie sagt, dieser Mann ist gleich gebliebenSag mir, wer von euch Punks kann mich am Mic besiegen100.000 Fans, die die verdammte Scheiße liebenIch guck sie an, deine Mama weint vor dem SpiegelUnd ich habe krasse Lust die Stange rein-zu-schiebenWarum bist du mit deinem Bekanntenkreis zufriedenEs ist Sex in the City, wie die Schlampen bei Pro7, yeah
-[Part 3]Es ist crazy town, ich will jetzt was zu ziehenSonny Black, ich bin back, und ich rappe maskulin, yeahNeed For Speed, und du Wichser kriegst SchissDu willst etwas reden, doch du kriegst meine Fist, yeahDu bist der Typ, der doch immer schon ein Penner warIch bin ein Bauer, und stehe immer noch auf PamelaIch habe schon immer auf das Jam-Ding gekacktUnd höre immer noch 50 Cent, in da club, yeahGuck wie ich dir für den Fame deine Post klaueIch bin so etwas wie das Stranger in MoskauDer Staatsfeind, Angel Heart, auf der PirschDieser Junge fickt dich in den Arsch wie ein Hirsch, yeahEs ist Counterstrike, wie ich aus dem Sarg steigeRTL 2-Rap, nur für dich du ArschgeigeWas ist jetzt, ich bin back für die KiddiesEs ist Sex in the city, Sex in the city, yeah[Hook]Leute fragen, was hast du die lange Zeit getriebenScheiß drauf was sie sagt, dieser Mann ist gleich gebliebenSag mir, wer von euch Punks kann mich am Mic besiegen100.000 Fans, die die verdammte Scheiße liebenIch guck sie an, deine Mama weint vor dem SpiegelUnd ich habe krasse Lust die Stange rein-zu-schiebenWarum bist du mit deinem Bekanntenkreis zufriedenEs ist Sex in the City, wie die Schlampen bei Pro7, yeahLeute fragen, was hast du die lange Zeit getriebenScheiß drauf was sie sagt, dieser Mann ist gleich gebliebenSag mir, wer von euch Punks kann mich am Mic besiegen100.000 Fans, die die verdammte Scheiße liebenIch guck sie an, deine Mama weint vor dem SpiegelUnd ich habe krasse Lust die Stange rein-zu-schiebenWarum bist du mit deinem Bekanntenkreis zufriedenEs ist Sex in the City, wie die Schlampen bei Pro7, yeah</t>
+          <t>[Part 1]
+Tut mir Leid, ihr seid nicht in meiner Liga, Jungs
+Tempelhof, Schöneberg, der, der deine Lieder bumst
+Mädels, kommt es gibt Sex on the Beach
+King of Kingz und ich schreibe mein Text auf den Beat, yeah
+Sonny Black, jo, back on the streets
+Guck', die kleinen Hänger rauchen Backstage das Weed
+Das hier ist Berlin, City of God, yeah
+Was Feature, von mir kriegst du ein Korb, yeah
+Aggro, ihr seid für mich nichts als eine Clique Schisser
+Und ich hänge ab mit meinen Jungs im Titty Twister
+Wer hat die allerbesten Alben des Hip Hops
+Malboro-Big Box, Salto und Kickbox
+Ruf mich später an, jetzt bin ich busy
+Es ist Sex in the city, Sex in the city, yeah
+[Hook]
+Leute fragen, was hast du die lange Zeit getrieben
+Scheiß drauf was sie sagt, dieser Mann ist gleich geblieben
+Sag mir, wer von euch Punks kann mich am Mic besiegen
+100.000 Fans, die die verdammte Scheiße lieben
+Ich guck sie an, deine Mama weint vor dem Spiegel
+Und ich habe krasse Lust die Stange rein-zu-schieben
+Warum bist du mit deinem Bekanntenkreis zufrieden
+Es ist Sex in the City, wie die Schlampen bei Pro7, yeah
+[Part 2]
+Der Endgegner, Sonny Black, Monte Christo
+Arme hoch, ich zieh die Nase Koks in der Disco
+Es ist Untergrund, los drück auf Play
+Ich ficke dich, du Student, und dein Abschluss in Yale, yeah
+Mach mal besser keine Welle, du Clown
+Guck dich um, ja, es ist ein neuer Sheriff in Town, yeah
+Ich bin King Kong, ich ficke dein Gehirn
+Deine Freundin gibt mir einen Kiss auf die Stirn, yeah
+Ich muss schon sagen, ja, ihr Körper ist heiß
+Klar, sie betrügt dich, du trägst Sir Benny Miles, yeah
+Die Kugel reicht, deine Lichter sind aus
+Ich programmiere eine Kick und sie bounct, yeah
+Sonny, Po-Fick, ich steige in das Ghostship
+Lass den Smoke endlich rein in die Ozonschicht
+Du kannst rappen, doch die Tracks sind zu jiggy
+Es ist Sex in the city, Sex in the city, yeah
+[Hook]
+Leute fragen, was hast du die lange Zeit getrieben
+Scheiß drauf was sie sagt, dieser Mann ist gleich geblieben
+Sag mir, wer von euch Punks kann mich am Mic besiegen
+100.000 Fans, die die verdammte Scheiße lieben
+Ich guck sie an, deine Mama weint vor dem Spiegel
+Und ich habe krasse Lust die Stange rein-zu-schieben
+Warum bist du mit deinem Bekanntenkreis zufrieden
+Es ist Sex in the City, wie die Schlampen bei Pro7, yeah
+[Part 3]
+Es ist crazy town, ich will jetzt was zu ziehen
+Sonny Black, ich bin back, und ich rappe maskulin, yeah
+Need For Speed, und du Wichser kriegst Schiss
+Du willst etwas reden, doch du kriegst meine Fist, yeah
+Du bist der Typ, der doch immer schon ein Penner war
+Ich bin ein Bauer, und stehe immer noch auf Pamela
+Ich habe schon immer auf das Jam-Ding gekackt
+Und höre immer noch 50 Cent, in da club, yeah
+Guck wie ich dir für den Fame deine Post klaue
+Ich bin so etwas wie das Stranger in Moskau
+Der Staatsfeind, Angel Heart, auf der PirschDieser Junge fickt dich in den Arsch wie ein Hirsch, yeah
+Es ist Counterstrike, wie ich aus dem Sarg steige
+RTL 2-Rap, nur für dich du Arschgeige
+Was ist jetzt, ich bin back für die Kiddies
+Es ist Sex in the city, Sex in the city, yeah
+[Hook]
+Leute fragen, was hast du die lange Zeit getrieben
+Scheiß drauf was sie sagt, dieser Mann ist gleich geblieben
+Sag mir, wer von euch Punks kann mich am Mic besiegen
+100.000 Fans, die die verdammte Scheiße lieben
+Ich guck sie an, deine Mama weint vor dem Spiegel
+Und ich habe krasse Lust die Stange rein-zu-schieben
+Warum bist du mit deinem Bekanntenkreis zufrieden
+Es ist Sex in the City, wie die Schlampen bei Pro7, yeah
+Leute fragen, was hast du die lange Zeit getrieben
+Scheiß drauf was sie sagt, dieser Mann ist gleich geblieben
+Sag mir, wer von euch Punks kann mich am Mic besiegen
+100.000 Fans, die die verdammte Scheiße lieben
+Ich guck sie an, deine Mama weint vor dem Spiegel
+Und ich habe krasse Lust die Stange rein-zu-schieben
+Warum bist du mit deinem Bekanntenkreis zufrieden
+Es ist Sex in the City, wie die Schlampen bei Pro7, yeah</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1053,9 +1891,103 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[Intro](Cuts)[Part 1]Es ist Tempelhof, Schöneberg, Neukölln, KreuzbergIn Berlin wo nur jeder Zweite deutsch lerntDamals wollte ich nicht im Kindergarten spielenAuch in der Schule musste ich immer 'n Harten schieben (yeah)Ich wurde älter kein Bock auf SchuleDenn ich war damals schon in mei'm Block der CooleMic raus, ich rulte doch ich hatte kein ErfolgHätte damals nie gedacht ich bekomme zwei Mal GoldIch hatte kein Geld und mich wollte niemand' seh'nAlso musste ich auf die Straße denn ich musste dealen geh'nIch schwöre damals hab' ich das Kokain verteiltWenig später war ich dann bei Aggro Berlin gesigntEs ist Gangster Rap ich löste einen Hype ausOb Bordstein oder Skyline Junge denn ich scheiß' draufIch hab' mich so sehr auf das Label verlassenUnd dann doch gemerkt ich muss jetzt das Label verlassen (yeah)[Hook](Cuts)„Bushido“„The Hood Made Me“„Es ist meine Stadt“„Front if you want kid, lay on your back“„Bushido“„Friss den Bordstein du Keck“(Cuts)„Bushido“„The Hood Made Me“„Es ist meine Stadt“„Front if you want kid, lay on your back“„Bushido“„Friss den Bordstein du Keck“
-[Part 2]Es ist Charlottenburg Wedding Mohabit FriedrichshainDas ganze Land weiß jetzt ist die Bushido-TimeElectro Ghetto abgehoben wie ein UfoDer King of Kingz Staatsfeind Numero UnoUm mich ist eine Welle ausgebrochenFass' mein Auto an dann holt dich meine Schelle aus den Socken (yeah)Es kam ein Label und dann war es NemesisIch komme in die Air Of The Night so wie GenesisIn Berlin bin ich die Nummer einsUnd ich schütte das Benzin in den Siebener rein (yeah)Ersguterjunge, TRL, Viva LiveWer hätte gedacht dass Universal einen Dealer signtVon der Skyline zum Bordstein zurückDer Knast ruft ich muss nicht mehr dort sein zum GlückUnd sie sprühen jetzt mein B an die WändeManche sagen ich bin eine lebende Legende (yeah)[Hook](Cuts)„Bushido“„The Hood Made Me“„Es ist meine Stadt“„Front if you want kid, lay on your back“„Bushido“„Friss den Bordstein du Keck“(Cuts)„Bushido“„The Hood Made Me“„Es ist meine Stadt“„Front if you want kid, lay on your back“„Bushido“„Friss den Bordstein du Keck“
-[Part 3]Es ist Mitte, Reineckendorf, Wilmersdorf, SteglitzIhr wollt alle rappen aber Jungs, da geht nichtsEs ist so weit ich werd' Mama wieder stolz machenMama guck ich werd' einfach wieder Gold machenIch komme auf die Stage ich komm' mit Baba SaadKennst du den Kanacken der schon auf dem Bravo-Cover warKommt mal klar ihr seid Trottel und SpinnerBushido denn ich bin ein Echo- und kein Otto-Gewinner (yeah)Ich bin für deutschen Rap wie Fifty in den USADie nächste Konsequenz ist ich werde Movie-StarIch bin wie Freddy Krueger ich komme in der NachtSie haben Angst wegen mir bleiben die Kinder wachEs ist Nightmare gebt mir eurer Mic herWarte noch Kragen hoch jetzt bin ich bereit (yeah)An den Schulen wird sich wieder geboxtDenn er bringt ein neues Album euer Dealer vom Block[Hook](Cuts)„Bushido“„The Hood Made Me“„Es ist meine Stadt“„Front if you want kid, lay on your back“„Bushido“„Friss den Bordstein du Keck“(Cuts)„Bushido“„The Hood Made Me“„Es ist meine Stadt“„Front if you want kid, lay on your back“„Bushido“„Friss den Bordstein du Keck“</t>
+          <t>[Intro]
+(Cuts)
+[Part 1]
+Es ist Tempelhof, Schöneberg, Neukölln, Kreuzberg
+In Berlin wo nur jeder Zweite deutsch lernt
+Damals wollte ich nicht im Kindergarten spielen
+Auch in der Schule musste ich immer 'n Harten schieben (yeah)
+Ich wurde älter kein Bock auf Schule
+Denn ich war damals schon in mei'm Block der Coole
+Mic raus, ich rulte doch ich hatte kein Erfolg
+Hätte damals nie gedacht ich bekomme zwei Mal Gold
+Ich hatte kein Geld und mich wollte niemand' seh'n
+Also musste ich auf die Straße denn ich musste dealen geh'n
+Ich schwöre damals hab' ich das Kokain verteilt
+Wenig später war ich dann bei Aggro Berlin gesigntEs ist Gangster Rapich löste einen Hype aus
+Ob Bordstein oder Skyline Junge denn ich scheiß' drauf
+Ich hab' mich so sehr auf das Label verlassen
+Und dann doch gemerkt ich muss jetzt das Label verlassen (yeah)
+[Hook]
+(Cuts)
+„Bushido“
+„The Hood Made Me“
+„Es ist meine Stadt“
+„Front if you want kid, lay on your back“
+„Bushido“
+„Friss den Bordstein du Keck“
+(Cuts)
+„Bushido“
+„The Hood Made Me“
+„Es ist meine Stadt“
+„Front if you want kid, lay on your back“
+„Bushido“
+„Friss den Bordstein du Keck“
+[Part 2]
+Es ist Charlottenburg Wedding Mohabit Friedrichshain
+Das ganze Land weiß jetzt ist die Bushido-Time
+Electro Ghetto abgehoben wie ein Ufo
+Der King of KingzStaatsfeind Numero Uno
+Um mich ist eine Welle ausgebrochen
+Fass' mein Auto an dann holt dich meine Schelle aus den Socken (yeah)
+Es kam ein Label und dann war es Nemesis
+Ich komme in die Air Of The Night so wie Genesis
+In Berlin bin ich die Nummer eins
+Und ich schütte das Benzin in den Siebener rein (yeah)
+Ersguterjunge, TRL, Viva Live
+Wer hätte gedacht dass Universal einen Dealer signt
+Von der Skyline zum Bordstein zurück
+Der Knast ruft ich muss nicht mehr dort sein zum Glück
+Und sie sprühen jetzt mein B an die Wände
+Manche sagen ich bin eine lebende Legende (yeah)
+[Hook]
+(Cuts)
+„Bushido“
+„The Hood Made Me“
+„Es ist meine Stadt“
+„Front if you want kid, lay on your back“
+„Bushido“
+„Friss den Bordstein du Keck“
+(Cuts)
+„Bushido“
+„The Hood Made Me“
+„Es ist meine Stadt“
+„Front if you want kid, lay on your back“
+„Bushido“
+„Friss den Bordstein du Keck“
+[Part 3]
+Es ist Mitte, Reineckendorf, Wilmersdorf, Steglitz
+Ihr wollt alle rappen aber Jungs, da geht nichts
+Es ist so weit ich werd' Mama wieder stolz machen
+Mama guck ich werd' einfach wieder Gold machen
+Ich komme auf die Stage ich komm' mit Baba Saad
+Kennst du den Kanacken der schon auf dem Bravo-Cover war
+Kommt mal klar ihr seid Trottel und Spinner
+Bushido denn ich bin ein Echo- und kein Otto-Gewinner (yeah)
+Ich bin für deutschen Rap wie Fifty in den USA
+Die nächste Konsequenz ist ich werde Movie-Star
+Ich bin wie Freddy Krueger ich komme in der Nacht
+Sie haben Angst wegen mir bleiben die Kinder wach
+Es ist Nightmare gebt mir eurer Mic her
+Warte noch Kragen hoch jetzt bin ich bereit (yeah)
+An den Schulen wird sich wieder geboxt
+Denn er bringt ein neues Album euer Dealer vom Block
+[Hook]
+(Cuts)
+„Bushido“
+„The Hood Made Me“
+„Es ist meine Stadt“
+„Front if you want kid, lay on your back“
+„Bushido“
+„Friss den Bordstein du Keck“
+(Cuts)
+„Bushido“
+„The Hood Made Me“
+„Es ist meine Stadt“
+„Front if you want kid, lay on your back“
+„Bushido“
+„Friss den Bordstein du Keck“</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1107,9 +2039,74 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[Part 1]Schon wieder ist er da, wieder diese NervensägeUnd die Konkurrenz kriegt von diesem Vers MigräneIhr seid nicht ernst zu nehmen, billig wie ein McChickenWenn's euch nicht gefällt, müsst ihr diesen Track skippenEs ist Topspin, wie ich durch die Box klingAll die Rapper reden Scheiße, weil sie nicht am Block sindWo willst du noch hin? Du bist nur der FotzenknechtIch bin wieder da, am Ende ist nur Gott gerechtDas ist Kampfgeist, Ich zeige dir, was Schwanz heißtGuck du willst in meine Nähe, leider bist du ganz weitDeine Nutte ungeschminkt, sieht aus wie ein DschungelkindIch rappe nicht aus Spaß, denn ich muss es unbedingtJunge, dein Penis ist zu kurzDeine Mama ist ne Miss, eine Missgeburt, (yeah)Du bist Wortgewandt, aber ich kann Porsche fahrenUnd du siehst so aus, als kämst du direkt aus Notre DameIch bin 27, bald kommen die Greatest HitsDu bist nicht ekelig, Nein, ich nenn dich GaykeligAlso friss Schwanz, du weißt, dass du nichts kannstDu willst mit mir reden, Bitte, aus der DistanzDas ist der Stoff aus dem die Träume sindGuter Junge, weil ich Boss bin, du ZigeunerkindDeine Mutter trägt Shox und sie hört am Bahnhof GabbaDoch ich bin und bleib der erste auf dem Bravo Cover
-[Hook]Ich bin der erste Kanacke auf dem Bravo CoverGuck dir das an, ist das nicht der Wahnsinn, Mama?Der erste Ausländer dort auf diesem TitelblattEs ist Sonny Black, live aus eurer LieblingsstadtDer erste Deutschrapper, der der jemals drauf warDenn die allen anderen, die sind auch nicht brauchbarIch weiß, dass ihr alle noch immer drauf wartet, aberIch bin und bleib der erste auf dem Bravo Cover[Part 2]Schon wieder ist er da, wieder dieser guter JungeDu bist ein Junkie, aber Hauptsache ein guter KundeLadies lieben mich, weil ich ein Athlet binIch bin in Europa der berühmteste TunesiensDein dummer Anwalt ist ein WinkeladvokatEs ist Deutschland, ich bin hier der King in diesem StaatIch pinkel auf dein Grab, denn ich bin der Sitting BullKing of Kingz, Alle meine Untergrund-Hits sind kultIch habe nicht die Schuld der hoffnungslosen LageUnd ich ficke jeden von euch Opfern ohne GnadeDu Trottel ziehst ne Nase und ich werde davon reichDann fahr ich den brandneuen 7er ins Parkhaus reinDeine Frau schmeißt dich raus und du stehst im GartenJunge, komm nicht nach Berlin mit deinen Jesus-LatschenDeine Mutter will den Schwanz, Ich will MirosvitaSie ist ein fettes Schwein und verdrückt eine Gyros pitaIch bewahre mein Geld hier in einer AktentascheGuck, wie ich dich einfach neben deiner Atzen klatscheJetzt ist Polen offen, du hast an den Hoden stoppelnIch hab ein Studio und du hast nicht mal die Rohling KostenIch werd dich Homo boxen, denn du riechst nach ScheidenschleimDeine Promo-Fotze wird wieder mal peinlich seinIch fick dein scheiß Verein! Guck, ich bin der Latin LoverIch bin auf dem Bravo- und du auf dem Backspin-Cover
-[Hook]Ich bin der erste Kanacke auf dem Bravo CoverGuck dir das an, ist das nicht der Wahnsinn, Mama?Der erste Ausländer dort auf diesem TitelblattEs ist Sonny Black, live aus eurer LieblingsstadtDer erste Deutschrapper, der der jemals drauf warDenn die allen anderen, die sind auch nicht brauchbarIch weiß, dass ihr alle noch immer drauf wartet, aberIch bin und bleib der erste auf dem Bravo Cover</t>
+          <t>[Part 1]
+Schon wieder ist er da, wieder diese Nervensäge
+Und die Konkurrenz kriegt von diesem Vers Migräne
+Ihr seid nicht ernst zu nehmen, billig wie ein McChicken
+Wenn's euch nicht gefällt, müsst ihr diesen Track skippen
+Es ist Topspin, wie ich durch die Box kling
+All die Rapper reden Scheiße, weil sie nicht am Block sind
+Wo willst du noch hin? Du bist nur der Fotzenknecht
+Ich bin wieder da, am Ende ist nur Gott gerecht
+Das ist Kampfgeist, Ich zeige dir, was Schwanz heißt
+Guck du willst in meine Nähe, leider bist du ganz weit
+Deine Nutte ungeschminkt, sieht aus wie ein Dschungelkind
+Ich rappe nicht aus Spaß, denn ich muss es unbedingt
+Junge, dein Penis ist zu kurz
+Deine Mama ist ne Miss, eine Missgeburt, (yeah)
+Du bist Wortgewandt, aber ich kann Porsche fahren
+Und du siehst so aus, als kämst du direkt aus Notre Dame
+Ich bin 27, bald kommen die Greatest Hits
+Du bist nicht ekelig, Nein, ich nenn dich Gaykelig
+Also friss Schwanz, du weißt, dass du nichts kannst
+Du willst mit mir reden, Bitte, aus der Distanz
+Das ist der Stoff aus dem die Träume sind
+Guter Junge, weil ich Boss bin, du Zigeunerkind
+Deine Mutter trägt Shox und sie hört am Bahnhof Gabba
+Doch ich bin und bleib der erste auf dem Bravo Cover
+[Hook]
+Ich bin der erste Kanacke auf dem Bravo Cover
+Guck dir das an, ist das nicht der Wahnsinn, Mama?
+Der erste Ausländer dort auf diesem Titelblatt
+Es ist Sonny Black, live aus eurer Lieblingsstadt
+Der erste Deutschrapper, der der jemals drauf war
+Denn die allen anderen, die sind auch nicht brauchbar
+Ich weiß, dass ihr alle noch immer drauf wartet, aber
+Ich bin und bleib der erste auf dem Bravo Cover
+[Part 2]
+Schon wieder ist er da, wieder dieser guter Junge
+Du bist ein Junkie, aber Hauptsache ein guter Kunde
+Ladies lieben mich, weil ich ein Athlet bin
+Ich bin in Europa der berühmteste Tunesiens
+Dein dummer Anwalt ist ein Winkeladvokat
+Es ist Deutschland, ich bin hier der King in diesem Staat
+Ich pinkel auf dein Grab, denn ich bin der Sitting Bull
+King of Kingz, Alle meine Untergrund-Hits sind kult
+Ich habe nicht die Schuld der hoffnungslosen Lage
+Und ich ficke jeden von euch Opfern ohne Gnade
+Du Trottel ziehst ne Nase und ich werde davon reich
+Dann fahr ich den brandneuen 7er ins Parkhaus rein
+Deine Frau schmeißt dich raus und du stehst im Garten
+Junge, komm nicht nach Berlin mit deinen Jesus-Latschen
+Deine Mutter will den Schwanz, Ich will Mirosvita
+Sie ist ein fettes Schwein und verdrückt eine Gyros pita
+Ich bewahre mein Geld hier in einer Aktentasche
+Guck, wie ich dich einfach neben deiner Atzen klatsche
+Jetzt ist Polen offen, du hast an den Hoden stoppeln
+Ich hab ein Studio und du hast nicht mal die Rohling Kosten
+Ich werd dich Homo boxen, denn du riechst nach Scheidenschleim
+Deine Promo-Fotze wird wieder mal peinlich sein
+Ich fick dein scheiß Verein! Guck, ich bin der Latin Lover
+Ich bin auf dem Bravo- und du auf dem Backspin-Cover
+[Hook]
+Ich bin der erste Kanacke auf dem Bravo Cover
+Guck dir das an, ist das nicht der Wahnsinn, Mama?
+Der erste Ausländer dort auf diesem Titelblatt
+Es ist Sonny Black, live aus eurer Lieblingsstadt
+Der erste Deutschrapper, der der jemals drauf war
+Denn die allen anderen, die sind auch nicht brauchbar
+Ich weiß, dass ihr alle noch immer drauf wartet, aber
+Ich bin und bleib der erste auf dem Bravo Cover</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1161,9 +2158,103 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[Part 1]Ich regel das für unsSchau mir in die Augen, KleinesSchon damals in der Schule warst du eine AugenweideIch erinner mich braune Auge, langes HaarDu bist die krasseste mit der ich je zusammen warIch hab's geschworen, ich werde dich nie im Stich lassenUnd wenn doch, Schatz, dann darfst du mein Gesicht hassenIch kann es nicht fassen und es macht mich traurig soEines Tages kam'n die Bullen mich mit Blaulicht holenSchatz, ich bin dein Bruce WillisDu fragst mich ob ich heute Abend Sex will – Ja, dein Bruce Will esDu bist so chilligIch liebe deinen HumorDeine süße Stimme ist Musik für meine OhrenDu bist so korrektIch hab dich immer im GedächtnisIch würde gerne bis morgen bleiben, wenn's dir recht istDu bist mein Schätzchen, ich will mit dir Kinder kriegenIch schwör auf meine Mutter, Schatz, ich wird dich immer lieben[Hook]Ich regel das für unsSchau mir in die Augen, KleinesDenn du bist so krass, für dich schreib ich 1000 ReimeIch vertrau Keiner aus dir, siehst du's nicht?Glaubst du's nicht?Ich schwöre dir ich liebe dichIch regel das für unsSchau mir in die Augen, KleinesDoch leider, Schatz, sitz hier jetzt allein zu HauseVerdammt, ich brauch Keine außer dir, siehst du's nicht?Glaubst du's nicht?Ich schwöre dir ich liebe dich
-[Part 2]Ich regel das für unsSchau mir in die Augen, KleinesManchmal bietet dir dieses Leben nur ein Haufen ScheißeDeine unglaublich geilen Augen sind so sagenhaftWeißt du noch als ich deinen Ex Freund geschlagen hab?Heute Abend, Schatz, schläfst du in meinen Armen einIch bin frisch rasiert und rieche nach FahrenheitEs ist soweit, wir müssen nicht mehr betteln gehenKleine, denn dein Mann, er hat jetzt den RapperfameIch lasse dich nicht links liegenUnd ich sage: wallah Baby, für mich wäre jetzt das krasseste ein Kind zu kriegenDein Gesicht ist bombastisch und glänztIch hab dir die Louis Vuitton Tasche geschenktSieh durch das Fenster, du trinkst den NescaféSieh auf die Straße und kann die ganzen Stresser sehenDu bist die Beste, Schatz, sag mir bist du jetzt zu Frieden?Ich liebe dich, guck ich hab dir jetzt nen Text geschrieben[Hook]Ich regel das für unsSchau mir in die Augen, KleinesDenn du bist so krass, für dich schreib ich 1000 ReimeIch vertrau Keiner aus dir, siehst du's nicht?Glaubst du's nicht?Ich schwöre dir ich liebe dichIch regel das für unsSchau mir in die Augen, KleinesDoch leider, Schatz, sitz hier jetzt allein zu HauseVerdammt, ich brauch Keine außer dir, siehst du's nicht?Glaubst du's nicht?Ich schwöre dir ich liebe dich
-[Part 3]Ich regel das für unsSchau mir in die Augen, KleinesSag wie viele Nächte musste ich schon draußen bleiben?Ich habe dich enttäuschtImmer wieder denk ich dranEs tut mir leid, Schatz, denn ich bin dir fremdgegangenWir sind am Ende manWo sind wir angekommen?Deine Mutter wollte nie, dass wir zwei zusammen kommenDu bist mein Schatz, aber ich habe die Hosen anDu weißt im Bett sag ich immer deinen KosenamenAls ich mit Rosen kam und hab sie dir ins Haar gestecktEs tut mir leid, Schatz, denn ich bin kein ArchitektIch habe hart gerappt doch du bist mein HoneymoonDu bist so krass ich fad sogar meine Mami coolWas war letztes Jahr? –Ich wurde wieder angezeigtDoch du liebtest mich trotz meiner VergangenheitSeid ner langen Zeit bist du nicht hierWie oft soll ich sagen, dass ich dich respektier?Yeah[Hook]Ich regel das für unsSchau mir in die Augen, KleinesDenn du bist so krass, für dich schreib ich 1000 ReimeIch vertrau Keiner aus dir, siehst du's nicht?Glaubst du's nicht?Ich schwöre dir ich liebe dichIch regel das für unsSchau mir in die Augen, KleinesDoch leider, Schatz, sitz hier jetzt allein zu HauseVerdammt, ich brauch Keine außer dir, siehst du's nicht?Glaubst du's nicht?Ich schwöre dir ich liebe dich</t>
+          <t>[Part 1]
+Ich regel das für uns
+Schau mir in die Augen, Kleines
+Schon damals in der Schule warst du eine Augenweide
+Ich erinner mich braune Auge, langes Haar
+Du bist die krasseste mit der ich je zusammen war
+Ich hab's geschworen, ich werde dich nie im Stich lassen
+Und wenn doch, Schatz, dann darfst du mein Gesicht hassen
+Ich kann es nicht fassen und es macht mich traurig so
+Eines Tages kam'n die Bullen mich mit Blaulicht holen
+Schatz, ich bin dein Bruce WillisDu fragst mich ob ich heute Abend Sex will – Ja, dein Bruce Will es
+Du bist so chillig
+Ich liebe deinen Humor
+Deine süße Stimme ist Musik für meine Ohren
+Du bist so korrekt
+Ich hab dich immer im Gedächtnis
+Ich würde gerne bis morgen bleiben, wenn's dir recht ist
+Du bist mein Schätzchen, ich will mit dir Kinder kriegen
+Ich schwör auf meine Mutter, Schatz, ich wird dich immer lieben
+[Hook]
+Ich regel das für uns
+Schau mir in die Augen, Kleines
+Denn du bist so krass, für dich schreib ich 1000 Reime
+Ich vertrau Keiner aus dir, siehst du's nicht?
+Glaubst du's nicht?
+Ich schwöre dir ich liebe dich
+Ich regel das für uns
+Schau mir in die Augen, Kleines
+Doch leider, Schatz, sitz hier jetzt allein zu Hause
+Verdammt, ich brauch Keine außer dir, siehst du's nicht?
+Glaubst du's nicht?
+Ich schwöre dir ich liebe dich
+[Part 2]
+Ich regel das für uns
+Schau mir in die Augen, Kleines
+Manchmal bietet dir dieses Leben nur ein Haufen Scheiße
+Deine unglaublich geilen Augen sind so sagenhaft
+Weißt du noch als ich deinen Ex Freund geschlagen hab?
+Heute Abend, Schatz, schläfst du in meinen Armen ein
+Ich bin frisch rasiert und rieche nach Fahrenheit
+Es ist soweit, wir müssen nicht mehr betteln gehen
+Kleine, denn dein Mann, er hat jetzt den Rapperfame
+Ich lasse dich nicht links liegen
+Und ich sage: wallah Baby, für mich wäre jetzt das krasseste ein Kind zu kriegen
+Dein Gesicht ist bombastisch und glänzt
+Ich hab dir die Louis Vuitton Tasche geschenkt
+Sieh durch das Fenster, du trinkst den Nescafé
+Sieh auf die Straße und kann die ganzen Stresser sehen
+Du bist die Beste, Schatz, sag mir bist du jetzt zu Frieden?
+Ich liebe dich, guck ich hab dir jetzt nen Text geschrieben
+[Hook]
+Ich regel das für uns
+Schau mir in die Augen, Kleines
+Denn du bist so krass, für dich schreib ich 1000 Reime
+Ich vertrau Keiner aus dir, siehst du's nicht?
+Glaubst du's nicht?
+Ich schwöre dir ich liebe dich
+Ich regel das für uns
+Schau mir in die Augen, Kleines
+Doch leider, Schatz, sitz hier jetzt allein zu Hause
+Verdammt, ich brauch Keine außer dir, siehst du's nicht?
+Glaubst du's nicht?
+Ich schwöre dir ich liebe dich
+[Part 3]
+Ich regel das für uns
+Schau mir in die Augen, Kleines
+Sag wie viele Nächte musste ich schon draußen bleiben?
+Ich habe dich enttäuscht
+Immer wieder denk ich dran
+Es tut mir leid, Schatz, denn ich bin dir fremdgegangen
+Wir sind am Ende man
+Wo sind wir angekommen?
+Deine Mutter wollte nie, dass wir zwei zusammen kommen
+Du bist mein Schatz, aber ich habe die Hosen an
+Du weißt im Bett sag ich immer deinen Kosenamen
+Als ich mit Rosen kam und hab sie dir ins Haar gesteckt
+Es tut mir leid, Schatz, denn ich bin kein Architekt
+Ich habe hart gerappt doch du bist mein Honeymoon
+Du bist so krass ich fad sogar meine Mami cool
+Was war letztes Jahr? –Ich wurde wieder angezeigt
+Doch du liebtest mich trotz meiner Vergangenheit
+Seid ner langen Zeit bist du nicht hier
+Wie oft soll ich sagen, dass ich dich respektier?
+Yeah
+[Hook]
+Ich regel das für uns
+Schau mir in die Augen, Kleines
+Denn du bist so krass, für dich schreib ich 1000 Reime
+Ich vertrau Keiner aus dir, siehst du's nicht?
+Glaubst du's nicht?
+Ich schwöre dir ich liebe dich
+Ich regel das für uns
+Schau mir in die Augen, Kleines
+Doch leider, Schatz, sitz hier jetzt allein zu Hause
+Verdammt, ich brauch Keine außer dir, siehst du's nicht?
+Glaubst du's nicht?
+Ich schwöre dir ich liebe dich</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1215,9 +2306,86 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[Intro]"Kannst dabei was lernen, du weißt ja, die Beine.""Die Beine? Der Kerl hat dagegen getreten, mit seinen, mit seinen Schienbeinen, ah, bis der Putz von der Decke gefallen ist!""Was soll's? Kann er sich bewegen wie ich? Nein! Kein Problem"[Part 1]Der Kickboxer Karate Tiger 3Benehme mich auf deiner Birthday-Party wie ein Schwein, yeahDein Album war krass, mein Album war krasserWenn meine Jungs kommen läuft bei euch das ArschwasserGuck wie ich dir jetzt 'ne Schelle auf die Backe gebSonny Black, ja, ich chille in 'nem AtelierIch bin wie Jean Claude, du bist sofort totScheiß auf deine Jungs und darauf, dass du in 'nem Dorf wohnstIch bin der Kickboxer, guck mal auf mein KontoArme hoch, ich laufe jetzt auf dich zu wie Tong PoHände in den Harz, danach in die ScherbenIch muss euch nur einmal treffen, alle sind am sterbenDu kommst mit 14 Kumpels, du bist die Stirn am runzelnIch gebe dir einen Jab und bin damit dein Hirn am bumsenWenn du unten liegst, geb' ich dir einen Tritt noch malIch bin dieser eine Junge, dieser Kickboxer[Hook]Der Kickboxer, wer verdient am besten GeldIch hab keine Gegner und ich battle mich am besten selbstIch bin dein Lehrer und du musst dich in die Ecke stellenIch trete gegen Wände bis der Putz von der Decke fälltDer Kickboxer, ihr bekommt jetzt 16 SchellenJa, du Opfer, du hast Recht, das ist eine schlechte WeltIch bin dieser Typ, der nichts von euren Rappern hältIch Box gegen Wände bis der Putz von der Decke fällt
-[Part 2]Der Kickboxer tritt in deine TailleErsguterjunge ist die Kehrseite der MedailleSei mutig, weil dein krasser Bruder neben dir chilltEure Atzen trinken Hasseröder Premium PilsDas ist kein B-Movie-Film, damit ihr Bescheid wisstDeutschraps Kurt Sloane, der euch hier am Mic disstIch bin der Kickboxer, hau dir auf die LymphknotenUnd du liegst bereits in einem Raum mit fünf TotenIn Berlin, wo man sich boxt um KleinigkeitenDu kannst den Bordstein hier fressen auf dem SeitenstreifenIhr seid so scheiße, hör mal meine G-RapsDamals, als ich im Knast war, trainierte ich meinen TrizepsNun ist der Beat weg, du Klotz am BeinViele meiner Brüder gehen in BoxvereinDie Fotzen schreien, guck doch her, ich fick OpferIch bin dieser eine Junge, dieser Kickboxer[Hook]Der Kickboxer, wer verdient am besten GeldIch hab keine Gegner und ich battle mich am besten selbstIch bin dein Lehrer und du musst dich in die Ecke stellenIch trete gegen Wände bis der Putz von der Decke fälltDer Kickboxer, ihr bekommt jetzt 16 SchellenJa, du Opfer, du hast Recht, das ist eine schlechte WeltIch bin dieser Typ, der nichts von euren Rappern hältIch Box gegen Wände bis der Putz von der Decke fällt
-[Part 3]Der Kickboxer, Arab in AktionDeine Freunde wohnen in der KanalisationIch habe Munition und ich schieße schon wiederMeine Jungs halten jetzt zusammen, wie die SloanebrüderEs ist Katzbach, Junge, besser mach PlatzDu willst mir meine Freundin ausspannen, ich fick dich achtfachDer Junge hat was, man wird ihn vermissenLetztens hab ich einfach den Champion-Gürtel zerrissenIch bin der Kickboxer, ich will schnell nach obenIch trete mit dem Knie, schlage mit dem EllenbogenMeine Schellen holen dich jetzt runter so wie TreibsandIch bin der Krasseste von hier bis nach ThailandMic an, undercover-kickbox-gefährlichDas Schutzgeld ist diese Woche Mittwoch schon fälligSonny Black, ich bin Der-dir-ins-Gesicht-RotzerIch bin dieser eine Junge, dieser Kickboxer[Hook]Der Kickboxer, wer verdient am besten GeldIch hab keine Gegner und ich battle mich am besten selbstIch bin dein Lehrer und du musst dich in die Ecke stellenIch trete gegen Wände bis der Putz von der Decke fälltDer Kickboxer, ihr bekommt jetzt 16 SchellenJa, du Opfer, du hast Recht, das ist eine schlechte WeltIch bin dieser Typ, der nichts von euren Rappern hältIch Box gegen Wände bis der Putz von der Decke fällt</t>
+          <t>[Intro]
+"Kannst dabei was lernen, du weißt ja, die Beine.""Die Beine? Der Kerl hat dagegen getreten, mit seinen, mit seinen Schienbeinen, ah, bis der Putz von der Decke gefallen ist!""Was soll's? Kann er sich bewegen wie ich? Nein! Kein Problem"
+[Part 1]
+Der Kickboxer Karate Tiger 3
+Benehme mich auf deiner Birthday-Party wie ein Schwein, yeah
+Dein Album war krass, mein Album war krasser
+Wenn meine Jungs kommen läuft bei euch das Arschwasser
+Guck wie ich dir jetzt 'ne Schelle auf die Backe geb
+Sonny Black, ja, ich chille in 'nem Atelier
+Ich bin wie Jean Claude, du bist sofort tot
+Scheiß auf deine Jungs und darauf, dass du in 'nem Dorf wohnst
+Ich bin der Kickboxer, guck mal auf mein Konto
+Arme hoch, ich laufe jetzt auf dich zu wie Tong Po
+Hände in den Harz, danach in die Scherben
+Ich muss euch nur einmal treffen, alle sind am sterben
+Du kommst mit 14 Kumpels, du bist die Stirn am runzeln
+Ich gebe dir einen Jab und bin damit dein Hirn am bumsen
+Wenn du unten liegst, geb' ich dir einen Tritt noch mal
+Ich bin dieser eine Junge, dieser Kickboxer
+[Hook]
+Der Kickboxer, wer verdient am besten Geld
+Ich hab keine Gegner und ich battle mich am besten selbst
+Ich bin dein Lehrer und du musst dich in die Ecke stellen
+Ich trete gegen Wände bis der Putz von der Decke fällt
+Der Kickboxer, ihr bekommt jetzt 16 Schellen
+Ja, du Opfer, du hast Recht, das ist eine schlechte Welt
+Ich bin dieser Typ, der nichts von euren Rappern hält
+Ich Box gegen Wände bis der Putz von der Decke fällt
+[Part 2]
+Der Kickboxer tritt in deine Taille
+Ersguterjunge ist die Kehrseite der Medaille
+Sei mutig, weil dein krasser Bruder neben dir chillt
+Eure Atzen trinken Hasseröder Premium Pils
+Das ist kein B-Movie-Film, damit ihr Bescheid wisst
+DeutschrapsKurt Sloane,der euch hier am Mic disst
+Ich bin der Kickboxer, hau dir auf die Lymphknoten
+Und du liegst bereits in einem Raum mit fünf Toten
+In Berlin, wo man sich boxt um Kleinigkeiten
+Du kannst den Bordstein hier fressen auf dem Seitenstreifen
+Ihr seid so scheiße, hör mal meine G-Raps
+Damals, als ich im Knast war, trainierte ich meinen Trizeps
+Nun ist der Beat weg, du Klotz am Bein
+Viele meiner Brüder gehen in Boxverein
+Die Fotzen schreien, guck doch her, ich fick Opfer
+Ich bin dieser eine Junge, dieser Kickboxer
+[Hook]
+Der Kickboxer, wer verdient am besten Geld
+Ich hab keine Gegner und ich battle mich am besten selbst
+Ich bin dein Lehrer und du musst dich in die Ecke stellen
+Ich trete gegen Wände bis der Putz von der Decke fällt
+Der Kickboxer, ihr bekommt jetzt 16 Schellen
+Ja, du Opfer, du hast Recht, das ist eine schlechte Welt
+Ich bin dieser Typ, der nichts von euren Rappern hält
+Ich Box gegen Wände bis der Putz von der Decke fällt
+[Part 3]
+Der Kickboxer, Arab in Aktion
+Deine Freunde wohnen in der Kanalisation
+Ich habe Munition und ich schieße schon wieder
+Meine Jungs halten jetzt zusammen, wie die Sloanebrüder
+Es ist Katzbach, Junge, besser mach Platz
+Du willst mir meine Freundin ausspannen, ich fick dich achtfach
+Der Junge hat was, man wird ihn vermissen
+Letztens hab ich einfach den Champion-Gürtel zerrissen
+Ich bin der Kickboxer, ich will schnell nach oben
+Ich trete mit dem Knie, schlage mit dem Ellenbogen
+Meine Schellen holen dich jetzt runter so wie Treibsand
+Ich bin der Krasseste von hier bis nach Thailand
+Mic an, undercover-kickbox-gefährlich
+Das Schutzgeld ist diese Woche Mittwoch schon fällig
+Sonny Black, ich bin Der-dir-ins-Gesicht-Rotzer
+Ich bin dieser eine Junge, dieser Kickboxer
+[Hook]
+Der Kickboxer, wer verdient am besten Geld
+Ich hab keine Gegner und ich battle mich am besten selbst
+Ich bin dein Lehrer und du musst dich in die Ecke stellen
+Ich trete gegen Wände bis der Putz von der Decke fällt
+Der Kickboxer, ihr bekommt jetzt 16 Schellen
+Ja, du Opfer, du hast Recht, das ist eine schlechte Welt
+Ich bin dieser Typ, der nichts von euren Rappern hält
+Ich Box gegen Wände bis der Putz von der Decke fällt</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1269,10 +2437,86 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Intro]-Möchten sie Ausrüstung jetzt sehen?-Ja!-Ist es das was sie haben wollten?-Ja!-Hab ich noch nie gesehen diese Sachen. Was ist das?-Sprengzünder!-Und das? Wozu ist das?-Das ist Blaues Licht-Und was macht es?-Es leuchtet blau[Part 1]Das ist blaues Licht! Ich bin JungunternehmerIhr werdet alle immer noch gebumst von der GEMAEGJ es gibt für uns keine Gegner, ich fahre 7nerUnd du kommst unter die RäderBlaues Licht, ich mach deine Sandburg kaputtIch habe seit meinem ersten Vers auf Hamburg gespucktSonny Black ich habe dich beim Kampfsport geputztVerweise deine Freundin an den Schwanz und sie lutschtDas ist blaues Licht, YEAH, los gehts Hand hoch!Ich bin sowas ähnliches wie Jon J. RamboIhr fragt euch alle woher kommt dieser Mann, wo?Ich bin Anti-Terror-Kampf-Selbstmord-KommandoBlaues Licht, jetzt wird in der Dunkelheit gefeuertEs kann jeden treffen wie bei Trunkenheit am SteuerIch guck euch an und ihr Tunten seid bescheuertDu willst ficken? Hast du heute schon dein Unterleib gesäubert?
-[Hook]Das ist blaues Licht! Was macht es? Es leuchtet blau! Guck!Alle Rapper klettern jetzt die Bäume RaufGuck alle Kids rasten jetzt vor Freude ausIch bin böser als wär' ich mit dem Teufel downDas ist blaues Licht! Was macht es? Es leuchtet blau!Sag, wer ist dieser Junge hier den Deutschland braucht?Was ich mache? nichts ich, ficke euren SoundFicke dich, ficke ihn, eure Freunde auch[Part 2]Das ist blaues Licht! Wenn ich will fahr ich n JeepDas ist Schöneberg, das hier ist nicht Malibu BeachHör' mir zu ich lege einfach meine Parts auf die BeatsJunge das sind die Berlin Araber GeesDas ist blaues Licht, der heilige BefehlBevor du dich versiehst liegt deine Leiche in der SpreeMeine Feinde könn' die Scheiße nicht verstehen es ist HighlifeIch verticke Steine beim BuffetDas ist blaues Licht nimm nicht meinen Namen in den MundKomm in meine Hood ich gib dir meinen Samen in den MundDu hast Pech weil wir dich einfach schlagen ohne GrundRaptile die behinderte Blamage wird gebumstDas ist blaues Licht weil ich aus dem Elend kamUnd du stehst einfach da sowie ein PelikanWer ist Playboy, wir machen die Ladys anIch bring das Game zurück wieder in die 80´s, baam
-[Hook]Das ist blaues Licht! Was macht es? Es leuchtet blau! Guck!Alle Rapper klettern jetzt die Bäume RaufGuck alle Kids rasten jetzt vor Freude ausIch bin böser als wär' ich mit dem Teufel downDas ist blaues Licht! Was macht es? Es leuchtet blau!Sag, wer ist dieser Junge hier den Deutschland braucht?Was ich mache? nichts ich, ficke euren SoundFicke dich, ficke ihn, eure Freunde auch[Part 3]Das hier ist blaues Licht, die Pforte hin zum frei seinUnd ich habe es geschafft vom Bordstein bis zur SkylineIch war auf Tour mit Cordon muss dabei seinIch schreib ein Text sofort fällt mir dieser Scheiß einDas ist blaues Licht, das hier ist TempelhofEuer Sound ist unentwickelt wie ein EmbryoDu bist ein Rentner und fühlst dich nur beim Camping wohlNächstes Jahr hol ich mir ein neuen Benz in ChromDas hier ist blaues Licht wie bei nem IrakkriegerDu findest dich bald als Penner in nem Park wiederWenn meine Freunde komm, Junge dann bezahl lieberIch bleibe Champions League du bist RegionalligaDas hier ist blaues Licht, Miami ViceIhr promotet eine Platte voller peinlichem ScheißIch bin die NR.1 das sind die Zeichen der ZeitIch bin gemein wie 10 du bist nur gemein so wie 3, yeah
-[Hook]Das ist blaues Licht! Was macht es? Es leuchtet blau! Guck!Alle Rapper klettern jetzt die Bäume RaufGuck alle Kids rasten jetzt vor Freude ausIch bin böser als wär' ich mit dem Teufel downDas ist blaues Licht! Was macht es? Es leuchtet blau!Sag, wer ist dieser Junge hier den Deutschland braucht?Was ich mache? nichts ich, ficke euren SoundFicke dich, ficke ihn, eure Freunde auch</t>
+          <t>[Intro]
+-Möchten sie Ausrüstung jetzt sehen?-Ja!-Ist es das was sie haben wollten?-Ja!-Hab ich noch nie gesehen diese Sachen. Was ist das?-Sprengzünder!-Und das? Wozu ist das?-Das ist Blaues Licht-Und was macht es?-Es leuchtet blau
+[Part 1]
+Das ist blaues Licht! Ich bin Jungunternehmer
+Ihr werdet alle immer noch gebumst von der GEMA
+EGJ es gibt für uns keine Gegner, ich fahre 7ner
+Und du kommst unter die Räder
+Blaues Licht, ich mach deine Sandburg kaputt
+Ich habe seit meinem ersten Vers auf Hamburg gespuckt
+Sonny Black ich habe dich beim Kampfsport geputzt
+Verweise deine Freundin an den Schwanz und sie lutscht
+Das ist blaues Licht, YEAH, los gehts Hand hoch!
+Ich bin sowas ähnliches wie Jon J. Rambo
+Ihr fragt euch alle woher kommt dieser Mann, wo?
+Ich bin Anti-Terror-Kampf-Selbstmord-Kommando
+Blaues Licht, jetzt wird in der Dunkelheit gefeuert
+Es kann jeden treffen wie bei Trunkenheit am Steuer
+Ich guck euch an und ihr Tunten seid bescheuert
+Du willst ficken? Hast du heute schon dein Unterleib gesäubert?
+[Hook]
+Das ist blaues Licht! Was macht es? Es leuchtet blau! Guck!
+Alle Rapper klettern jetzt die Bäume Rauf
+Guck alle Kids rasten jetzt vor Freude aus
+Ich bin böser als wär' ich mit dem Teufel down
+Das ist blaues Licht! Was macht es? Es leuchtet blau!
+Sag, wer ist dieser Junge hier den Deutschland braucht?
+Was ich mache? nichts ich, ficke euren Sound
+Ficke dich, ficke ihn, eure Freunde auch
+[Part 2]
+Das ist blaues Licht! Wenn ich will fahr ich n Jeep
+Das ist Schöneberg, das hier ist nicht Malibu Beach
+Hör' mir zu ich lege einfach meine Parts auf die Beats
+Junge das sind die Berlin Araber Gees
+Das ist blaues Licht, der heilige Befehl
+Bevor du dich versiehst liegt deine Leiche in der Spree
+Meine Feinde könn' die Scheiße nicht verstehen es ist Highlife
+Ich verticke Steine beim Buffet
+Das ist blaues Licht nimm nicht meinen Namen in den Mund
+Komm in meine Hood ich gib dir meinen Samen in den Mund
+Du hast Pech weil wir dich einfach schlagen ohne Grund
+Raptile die behinderte Blamage wird gebumst
+Das ist blaues Licht weil ich aus dem Elend kam
+Und du stehst einfach da sowie ein Pelikan
+Wer ist Playboy, wir machen die Ladys an
+Ich bring das Game zurück wieder in die 80´s, baam
+[Hook]
+Das ist blaues Licht! Was macht es? Es leuchtet blau! Guck!
+Alle Rapper klettern jetzt die Bäume Rauf
+Guck alle Kids rasten jetzt vor Freude aus
+Ich bin böser als wär' ich mit dem Teufel down
+Das ist blaues Licht! Was macht es? Es leuchtet blau!
+Sag, wer ist dieser Junge hier den Deutschland braucht?
+Was ich mache? nichts ich, ficke euren Sound
+Ficke dich, ficke ihn, eure Freunde auch
+[Part 3]
+Das hier ist blaues Licht, die Pforte hin zum frei sein
+Und ich habe es geschafft vom Bordstein bis zur Skyline
+Ich war auf Tour mit Cordon muss dabei sein
+Ich schreib ein Text sofort fällt mir dieser Scheiß ein
+Das ist blaues Licht, das hier ist Tempelhof
+Euer Sound ist unentwickelt wie ein Embryo
+Du bist ein Rentner und fühlst dich nur beim Camping wohl
+Nächstes Jahr hol ich mir ein neuen Benz in Chrom
+Das hier ist blaues Licht wie bei nem Irakkrieger
+Du findest dich bald als Penner in nem Park wieder
+Wenn meine Freunde komm, Junge dann bezahl lieber
+Ich bleibe Champions League du bist Regionalliga
+Das hier ist blaues Licht, Miami Vice
+Ihr promotet eine Platte voller peinlichem Scheiß
+Ich bin die NR.1 das sind die Zeichen der Zeit
+Ich bin gemein wie 10 du bist nur gemein so wie 3, yeah
+[Hook]
+Das ist blaues Licht! Was macht es? Es leuchtet blau! Guck!
+Alle Rapper klettern jetzt die Bäume Rauf
+Guck alle Kids rasten jetzt vor Freude aus
+Ich bin böser als wär' ich mit dem Teufel down
+Das ist blaues Licht! Was macht es? Es leuchtet blau!
+Sag, wer ist dieser Junge hier den Deutschland braucht?
+Was ich mache? nichts ich, ficke euren Sound
+Ficke dich, ficke ihn, eure Freunde auch</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1324,9 +2568,85 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Part 1]Es war mal ein Mädchen, sie war etwas früh reifUnd sie macht es einem warm ums Herz wie GlühweinSie war noch jung, ihr Name war JanineMama war da, doch er hat gewartet, bis sie schliefDie Erfahrung hatte sie schon mit vierzehn gemachtArmes Mädchen, denn sie wohnt im schlimmsten Viertel der StadtIhre Mutter hängt sich immer an die falschen MännerAn geldlose aggressive alte PennerSo wie auch ihr Stiefvater warAber Janine glaubte selber nicht, was diesmal geschahDenn er sagt ihr, dass er nicht mehr zu alt ist für sieUnd kurze Zeit darauf vergewaltigt er sieEs wird ihr alles zu viel, weil er es immer wieder machtUnd genau wie jede Nacht, kommt er auch in dieser NachtDu musst mir geben was mir Mama nicht mehr geben kannUnd bald merkt sie, dass sie schwanger ist von diesem Mann[Hook]Ich erzähl' dir ne Geschichte, sie ist wirklich wahrÜber Janine, ein Mädchen, das erst vierzehn warSie hatte kein'n Ausweg mehr geseh'nSie wollte immer irgendwem vertrauen, aber wem?Sie konnte nicht einmal sich selbst vertrau'nSie war am Ende und verlor ihr ganzes Selbstvertrau'nUnd obwohl doch alles immer so normal schienIst alles im Arsch, sie, sie hieß Janine
-[Part 2]Sie ist schwanger, keiner darf es mitbekomm'nWie soll sie es hin bekomm'n, wie soll sie ein Kind bekomm'n?Eigentlich sind Freunde ja für so was daSie hatte keine als sie im neunten Monat warAuf einmal fangen die Wehen an und schnellMerkte Janine, jetzt kommt das Baby auf die WeltSie kommt nicht weit, die Treppen kommt sie runterWo kann sie allein sein? Im Keller ihrer MutterZwischen Spinnweben und KartonsSollte sie ein wunderschönen Jung'n bekomm'nDas Baby auf dem Schoß, sie weiß nicht, was sie machen sollSie weiß nicht mehr, ob sie wein'n oder lachen sollAus Angst mit dem Kind nach Haus zu geh'nBleibt sie erst mal ein'n Moment da draußen steh'nSie ist erst vierzehn, JanineLegte aus Angst vor Schlägen jetzt ihr Baby vor die Kirche und lief[Hook]Ich erzähl' dir 'ne Geschichte, sie ist wirklich wahrÜber Janine, ein Mädchen, das erst vierzehn warSie hatte kein'n Ausweg mehr geseh'nSie wollte immer irgendwem vertrau'n, aber wem?Sie konnte nicht einmal sich selbst vertrau'nSie war am Ende und verlor ihr ganzes SelbstvertraunUnd obwohl doch alles immer so normal schienIst alles im Arsch, sie, sie hieß Janine
-[Part 3]Sie war keine, die mit vierzehn Nägel lackiertEher eine, die mit vierzehn Schläge kassiertHeute weiß es Janine, wenn es regnet, wird sie nassSie bereut es jeden Tag, dass sie ihr Baby nicht mehr hatSie wurde nicht glücklich und schämte sich so krassSie dachte immer wieder, ihr Leben ist verkackt'Ne gescheitere ExistenzIhr Lifestyle ist secondhandUnd sie war es Leid, einfach weg zu renn'nWas soll sie machen, kriegt sie bald die Kurve?Sie kommt nicht klar, weil sie damals vergewaltigt wurdeEs ist Janine, vom Stiefvater entehrtUnd ihr Leben war für sie nicht mal ein'n Cent wertEs war so, sie kämpfte bis zum SchlussDoch sie wusste, dass sie all dem jetzt ein Ende setzen mussUnd sie erinnert sich zurück an ihr KindSie weiß nicht weiter, stellt sich einfach auf die Brücke und …[Hook]Ich erzähl' dir 'ne Geschichte, sie ist wirklich wahrÜber Janine, ein Mädchen, das erst vierzehn warSie hatte kein'n Ausweg mehr geseh'nSie wollte immer irgendwem vertrau'n, aber wem?Sie konnte nicht einmal sich selbst vertrau'nSie war am Ende und verlor ihr ganzes Selbstvertrau'nUnd obwohl doch alles immer so normal schienIst alles im Arsch, sie, sie hieß Janine</t>
+          <t>[Part 1]
+Es war mal ein Mädchen, sie war etwas früh reif
+Und sie macht es einem warm ums Herz wie Glühwein
+Sie war noch jung, ihr Name war Janine
+Mama war da, doch er hat gewartet, bis sie schlief
+Die Erfahrung hatte sie schon mit vierzehn gemacht
+Armes Mädchen, denn sie wohnt im schlimmsten Viertel der Stadt
+Ihre Mutter hängt sich immer an die falschen Männer
+An geldlose aggressive alte Penner
+So wie auch ihr Stiefvater war
+Aber Janine glaubte selber nicht, was diesmal geschah
+Denn er sagt ihr, dass er nicht mehr zu alt ist für sie
+Und kurze Zeit darauf vergewaltigt er sie
+Es wird ihr alles zu viel, weil er es immer wieder macht
+Und genau wie jede Nacht, kommt er auch in dieser Nacht
+Du musst mir geben was mir Mama nicht mehr geben kann
+Und bald merkt sie, dass sie schwanger ist von diesem Mann
+[Hook]
+Ich erzähl' dir ne Geschichte, sie ist wirklich wahr
+Über Janine, ein Mädchen, das erst vierzehn war
+Sie hatte kein'n Ausweg mehr geseh'n
+Sie wollte immer irgendwem vertrauen, aber wem?
+Sie konnte nicht einmal sich selbst vertrau'n
+Sie war am Ende und verlor ihr ganzes Selbstvertrau'n
+Und obwohl doch alles immer so normal schien
+Ist alles im Arsch, sie, sie hieß Janine
+[Part 2]
+Sie ist schwanger, keiner darf es mitbekomm'n
+Wie soll sie es hin bekomm'n, wie soll sie ein Kind bekomm'n?
+Eigentlich sind Freunde ja für so was da
+Sie hatte keine als sie im neunten Monat war
+Auf einmal fangen die Wehen an und schnell
+Merkte Janine, jetzt kommt das Baby auf die Welt
+Sie kommt nicht weit, die Treppen kommt sie runter
+Wo kann sie allein sein? Im Keller ihrer Mutter
+Zwischen Spinnweben und Kartons
+Sollte sie ein wunderschönen Jung'n bekomm'n
+Das Baby auf dem Schoß, sie weiß nicht, was sie machen soll
+Sie weiß nicht mehr, ob sie wein'n oder lachen soll
+Aus Angst mit dem Kind nach Haus zu geh'n
+Bleibt sie erst mal ein'n Moment da draußen steh'n
+Sie ist erst vierzehn, Janine
+Legte aus Angst vor Schlägen jetzt ihr Baby vor die Kirche und lief
+[Hook]
+Ich erzähl' dir 'ne Geschichte, sie ist wirklich wahr
+Über Janine, ein Mädchen, das erst vierzehn war
+Sie hatte kein'n Ausweg mehr geseh'n
+Sie wollte immer irgendwem vertrau'n, aber wem?
+Sie konnte nicht einmal sich selbst vertrau'n
+Sie war am Ende und verlor ihr ganzes Selbstvertraun
+Und obwohl doch alles immer so normal schien
+Ist alles im Arsch, sie, sie hieß Janine
+[Part 3]
+Sie war keine, die mit vierzehn Nägel lackiert
+Eher eine, die mit vierzehn Schläge kassiert
+Heute weiß es Janine, wenn es regnet, wird sie nass
+Sie bereut es jeden Tag, dass sie ihr Baby nicht mehr hat
+Sie wurde nicht glücklich und schämte sich so krass
+Sie dachte immer wieder, ihr Leben ist verkackt
+'Ne gescheitere Existenz
+Ihr Lifestyle ist secondhand
+Und sie war es Leid, einfach weg zu renn'n
+Was soll sie machen, kriegt sie bald die Kurve?
+Sie kommt nicht klar, weil sie damals vergewaltigt wurde
+Es ist Janine, vom Stiefvater entehrt
+Und ihr Leben war für sie nicht mal ein'n Cent wert
+Es war so, sie kämpfte bis zum Schluss
+Doch sie wusste, dass sie all dem jetzt ein Ende setzen muss
+Und sie erinnert sich zurück an ihr Kind
+Sie weiß nicht weiter, stellt sich einfach auf die Brücke und …
+[Hook]
+Ich erzähl' dir 'ne Geschichte, sie ist wirklich wahr
+Über Janine, ein Mädchen, das erst vierzehn war
+Sie hatte kein'n Ausweg mehr geseh'n
+Sie wollte immer irgendwem vertrau'n, aber wem?
+Sie konnte nicht einmal sich selbst vertrau'n
+Sie war am Ende und verlor ihr ganzes Selbstvertrau'n
+Und obwohl doch alles immer so normal schien
+Ist alles im Arsch, sie, sie hieß Janine</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1378,9 +2698,85 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Songtext zu „Kein Fenster“][Part 1]Du weißt, dass ich immer noch der Alte binAber Mama, Mama, es ist kalt hier drinGuck, jeden Tag drehst du die Runden auf dem HofWenn du fliehen willst, heißt es: "Lasst die Hunde auf ihn los!"Es ist Knastrap, ich guck auf das SchachbrettHier heißt jeder dritte Yusuf, Ali oder AhmedUnd ich muss hier raus, muss zu meinen FreundenHier gibt's Araber, Russen oder DeutscheDu hast verloren wenn du ungeduldig bistHier, wo jeder Typ sagt, dass er unschuldig istGuck mal Mama, denn wir leben hier wie TiereIch hab kein Fenster hier, nur ne schwedische GardineVerdammt ich hasse es immer wenn der Wärter störtIch hoffe das dieses Lied auch die Merkel hörtIch will nach draußen, draußen wo ich einen Benz fahrAber Mama, ich hab kein Fenster[Hook]Ich hätte damals nie gedacht ich werde ein GangsterAber Mama, ich hab kein FensterManchmal hast du Geld, manchmal ist auch kein Cent daAber Mama, ich hab kein FensterUnd du weißt, dein Sohn, er bleibt immer ein KämpferAber Mama, ich hab kein FensterIch wurde kein Anwalt, kein Arzt und kein BankerAber Mama, ich hab kein Fenster
-[Part 2]Mama, für dich schreibe ich hier drinnen einen VersMama, denn sie haben deinen Jungen eingesperrtGuck, draußen verfolg ich meinen LebenstraumAber, hier drinnen bist du nur im TrainingsraumIch lese kaum, denn man hat mir meinen Willen geraubtIch will nur hier raus, einfach wieder chillen zuhausYeah, meine Freunde sind bestimmt auf ner Party heutWas ich damals machte hab ich hier drin jeden Tag bereutRache in Berlin, ich hustle in der StreetIch kann mir aussuchen ob ich hier im Knast bin oder fliehGuck mal Mama, hier drinnen ist es dreckigVon außen bin ich hart, doch mein Inneres verletzlichIch will raus, rappen, ich will zuhaus essenIch will so Vieles tun, am liebsten würd ich ausbrechenZurück in diese Zeit, als um mich noch kein Trend warAber Mama, ich hab kein Fenster[Hook]Ich hätte damals nie gedacht ich werde ein GangsterAber Mama, ich hab kein FensterManchmal hast du Geld, manchmal ist auch kein Cent daAber Mama, ich hab kein FensterUnd du weißt, dein Sohn, er bleibt immer ein KämpferAber Mama, ich hab kein FensterIch wurde kein Anwalt, kein Arzt und kein BankerAber Mama, ich hab kein Fenster
-[Part 3]Mama, sag mir bitte: Wo ist meine Jugend hin?Bitte komm nicht mehr her, auch wenn du mich besuchen willstEs ist Mittwoch, heute hab ich KüchendienstIm Gefängnis sitzen, glaub mir, sowas müssen GsIch will nicht mehr hier bleiben aber ich hab keine WahlJeden Tag einen Strich mit weißer Kreide malenManche gehen drauf, vielleicht bin ich morgen dranHier gibt's nen Typen, der jeden Scheiß besorgen kannMeine Jungs vermissen mich und trauernIch werde noch verrückt zwischen diesen MauernGuck mal Mama, keiner rettet mich von hierIch will reden aber diese Wände sprechen nicht mit mirDieses Leben ist ein ewiger KampfIch stehe wie ein Mann, hier im Käfig gefangenManchmal seh ich alle, manchmal ist auch kein Mensch daAber Mama, ich hab kein Fenster[Hook]Ich hätte damals nie gedacht ich werde ein GangsterAber Mama, ich hab kein FensterManchmal hast du Geld, manchmal ist auch kein Cent daAber Mama, ich hab kein FensterUnd du weißt, dein Sohn, er bleibt immer ein KämpferAber Mama, ich hab kein FensterIch wurde kein Anwalt, kein Arzt und kein BankerAber Mama, ich hab kein Fenster</t>
+          <t>[Songtext zu „Kein Fenster“]
+[Part 1]
+Du weißt, dass ich immer noch der Alte bin
+Aber Mama, Mama, es ist kalt hier drin
+Guck, jeden Tag drehst du die Runden auf dem Hof
+Wenn du fliehen willst, heißt es: "Lasst die Hunde auf ihn los!"
+Es ist Knastrap, ich guck auf das Schachbrett
+Hier heißt jeder dritte Yusuf, Ali oder Ahmed
+Und ich muss hier raus, muss zu meinen Freunden
+Hier gibt's Araber, Russen oder Deutsche
+Du hast verloren wenn du ungeduldig bist
+Hier, wo jeder Typ sagt, dass er unschuldig ist
+Guck mal Mama, denn wir leben hier wie Tiere
+Ich hab kein Fenster hier, nur ne schwedische Gardine
+Verdammt ich hasse es immer wenn der Wärter stört
+Ich hoffe das dieses Lied auch die Merkel hört
+Ich will nach draußen, draußen wo ich einen Benz fahr
+Aber Mama, ich hab kein Fenster
+[Hook]
+Ich hätte damals nie gedacht ich werde ein Gangster
+Aber Mama, ich hab kein Fenster
+Manchmal hast du Geld, manchmal ist auch kein Cent da
+Aber Mama, ich hab kein Fenster
+Und du weißt, dein Sohn, er bleibt immer ein Kämpfer
+Aber Mama, ich hab kein Fenster
+Ich wurde kein Anwalt, kein Arzt und kein Banker
+Aber Mama, ich hab kein Fenster
+[Part 2]
+Mama, für dich schreibe ich hier drinnen einen Vers
+Mama, denn sie haben deinen Jungen eingesperrt
+Guck, draußen verfolg ich meinen Lebenstraum
+Aber, hier drinnen bist du nur im Trainingsraum
+Ich lese kaum, denn man hat mir meinen Willen geraubt
+Ich will nur hier raus, einfach wieder chillen zuhaus
+Yeah, meine Freunde sind bestimmt auf ner Party heut
+Was ich damals machte hab ich hier drin jeden Tag bereut
+Rache in Berlin, ich hustle in der Street
+Ich kann mir aussuchen ob ich hier im Knast bin oder flieh
+Guck mal Mama, hier drinnen ist es dreckig
+Von außen bin ich hart, doch mein Inneres verletzlich
+Ich will raus, rappen, ich will zuhaus essen
+Ich will so Vieles tun, am liebsten würd ich ausbrechen
+Zurück in diese Zeit, als um mich noch kein Trend war
+Aber Mama, ich hab kein Fenster
+[Hook]
+Ich hätte damals nie gedacht ich werde ein Gangster
+Aber Mama, ich hab kein Fenster
+Manchmal hast du Geld, manchmal ist auch kein Cent da
+Aber Mama, ich hab kein Fenster
+Und du weißt, dein Sohn, er bleibt immer ein Kämpfer
+Aber Mama, ich hab kein Fenster
+Ich wurde kein Anwalt, kein Arzt und kein Banker
+Aber Mama, ich hab kein Fenster
+[Part 3]
+Mama, sag mir bitte: Wo ist meine Jugend hin?
+Bitte komm nicht mehr her, auch wenn du mich besuchen willst
+Es ist Mittwoch, heute hab ich Küchendienst
+Im Gefängnis sitzen, glaub mir, sowas müssen Gs
+Ich will nicht mehr hier bleiben aber ich hab keine Wahl
+Jeden Tag einen Strich mit weißer Kreide malen
+Manche gehen drauf, vielleicht bin ich morgen dran
+Hier gibt's nen Typen, der jeden Scheiß besorgen kann
+Meine Jungs vermissen mich und trauern
+Ich werde noch verrückt zwischen diesen Mauern
+Guck mal Mama, keiner rettet mich von hier
+Ich will reden aber diese Wände sprechen nicht mit mir
+Dieses Leben ist ein ewiger Kampf
+Ich stehe wie ein Mann, hier im Käfig gefangen
+Manchmal seh ich alle, manchmal ist auch kein Mensch da
+Aber Mama, ich hab kein Fenster
+[Hook]
+Ich hätte damals nie gedacht ich werde ein Gangster
+Aber Mama, ich hab kein Fenster
+Manchmal hast du Geld, manchmal ist auch kein Cent da
+Aber Mama, ich hab kein Fenster
+Und du weißt, dein Sohn, er bleibt immer ein Kämpfer
+Aber Mama, ich hab kein Fenster
+Ich wurde kein Anwalt, kein Arzt und kein Banker
+Aber Mama, ich hab kein Fenster</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1432,10 +2828,86 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[Songtext zu „Von der Skyline zum Bordstein zurück“][Part 1]Es geht wie von selbst, ich blicke auf den AsphaltFrüher dacht ich immer nur jeden Tag: Ich schaff's baldIch bin gekommen, um es zum Bordstein zurück zu bringenEuch bleibt gar nichts übrig, außer morgen von der Brücke springenIch war der erste hier, G-Rap auf DeutschDenn du musst auch hart sein, wenn der Beat nicht mehr läuftSonny Techno, raus aus meinem GhettoIch passe mich nicht an, trotzdem hol ich mir den EchoHörst du den Takt, den Rhythm of the Night?Ihr wollt alle hoch, doch die Kids finden euch zu weich, yeahIch bin die Nummer Eins, wer will mein Feind sein?Es ist Crime Time, Berlin ist mein HeimUnd bis zur Skyline, Rache in der NachtMeine Stimme liegt wie ein Schatten auf der Stadt, yeahGuck zum Horizont, siehst du dieses große B?Ich mach das Fenster auf und seh' die kleinen Kinder Drogen nehmen[Hook]Es geht von der Skyline zum Bordstein zurückSiehst du unsere Welt, wie sie niemals still steht, yeah?Ich hab vom Horizont zum Asphalt geblicktEs ist unser Leben in der Stadt die niemals Schläft, yeah!Von der Skyline zum Bordstein zurückDenn um umzukehren ist es leider schon zu spät, yeah!Ich hab vom Horizont zum Asphalt geblicktIch bin dieser Junge und ich bleib auf meinem Weg, yeah!
-[Part 2]Es geht wie von selbst, Lederjacken, SilberkettenFrüher hieß es für mich jede Nacht: „Ich bin am Rappen“Ich bin immer noch der mit dem ZahnstocherIch schaufel immer noch in Berlin dein Grab, Opfer!Was ist jetzt? Mach nur weiter, dummer HundIch ruf Ersguterjunge und schon brennt der UntergrundBarbeque is over, bounce, wenn ich kommeIch trag „Carlo Gangster” Shirts und werd braun unter der SonneDer Dschungel aus Beton, die Lunge voller SmogGlaub mir niemand anders hat zwei mal Gold am BlockDu bist ein nasses Hemd, ich seh der Asphalt brenntIch bin dieser Junge den man auch im Knast erkenntIch hab Benzin im Blut, der Horizont ist Schwarz gewordenDeine krassen Freunde sind in meinem Arsch gestorbenDa gibt es ein Problem: Ich bin gemein wie 10Guck hoch, du kannst ein B auf meiner Skyline sehen[Hook]Es geht von der Skyline zum Bordstein zurückSiehst du unsere Welt, wie sie niemals still steht, yeah?Ich hab vom Horizont zum Asphalt geblicktEs ist unser Leben in der Stadt die niemals Schläft, yeah!Von der Skyline zum Bordstein zurückDenn um umzukehren ist es leider schon zu spät, yeah!Ich hab vom Horizont zum Asphalt geblicktIch bin dieser Junge und ich bleib auf meinem Weg, yeah!
-[Scratches]„Von der Skyline zum Bordstein zurück“„–Bordstein zurück“„Von der Skyline zum Bordstein zurück“„Vom Horizont zum Asphalt“„Von der Skyline zum Bordstein zurück“„Siehst du unsere Welt“„Von der Skyline zum Bordstein zurück“„Es ist unser Leben in–“[Part 3]Es geht wie von selbst, man sagt das ich perfekt binIch bin Streetfighter, weil die Strassen voller Keks sindEs ist mein Bezirk, scheiße wa'?Bushido bringt Rap wieder in die DreißigerEs ist Zeit fürs Bett, denkt ihr, ihr seid Kugelsicher?Jeder hier im Rapgeschäft ist für mich ein schwuler StricherFriss den Bordstein, ich gehe durch mein ViertelDu hast irgendwas zu sagen, komm erzähl es meinem GürtelHast du Mut oder Angst? Rap ist was du nicht kannstIch bin hart wie mein Schwanz und komm Nachts ausm SchrankIch bin, unantastbar, der Rapper der im Knast warDu und deine Freunde sind die Typen die nie Krass warnGuck du Bastard ich komme in der DunkelheitMama sagt ich darf mit keinem von euch Kumpel seinUnd vom Horizont zurück auf die Street, yeah!Sonny Black back am Block – Mission Complete!
-[Hook]Es geht von der Skyline zum Bordstein zurückSiehst du unsere Welt, wie sie niemals still steht, yeah?Ich hab vom Horizont zum Asphalt geblicktEs ist unser Leben in der Stadt die niemals Schläft, yeah!Von der Skyline zum Bordstein zurückDenn um umzukehren ist es leider schon zu spät, yeah!Ich hab vom Horizont zum Asphalt geblicktIch bin dieser Junge und ich bleib auf meinem Weg, yeah!</t>
+          <t>[Songtext zu „Von der Skyline zum Bordstein zurück“]
+[Part 1]
+Es geht wie von selbst, ich blicke auf den AsphaltFrüher dacht ich immer nur jeden Tag: Ich schaff's baldIch bin gekommen, um es zum Bordstein zurück zu bringenEuch bleibt gar nichts übrig, außer morgen von der Brücke springen
+Ich war der erste hier, G-Rap auf Deutsch
+Denn du musst auch hart sein, wenn der Beat nicht mehr läuft
+Sonny Techno, raus aus meinem Ghetto
+Ich passe mich nicht an, trotzdem hol ich mir den Echo
+Hörst du den Takt, den Rhythm of the Night?
+Ihr wollt alle hoch, doch die Kids finden euch zu weich, yeah
+Ich bin die Nummer Eins, wer will mein Feind sein?
+Es ist Crime Time, Berlin ist mein Heim
+Und bis zur Skyline, Rache in der Nacht
+Meine Stimme liegt wie ein Schatten auf der Stadt, yeah
+Guck zum Horizont, siehst du dieses große B?
+Ich mach das Fenster auf und seh' die kleinen Kinder Drogen nehmen
+[Hook]
+Es geht von der Skyline zum Bordstein zurück
+Siehst du unsere Welt, wie sie niemals still steht, yeah?
+Ich hab vom Horizont zum Asphalt geblickt
+Es ist unser Leben in der Stadt die niemals Schläft, yeah!
+Von der Skyline zum Bordstein zurück
+Denn um umzukehren ist es leider schon zu spät, yeah!
+Ich hab vom Horizont zum Asphalt geblickt
+Ich bin dieser Junge und ich bleib auf meinem Weg, yeah!
+[Part 2]
+Es geht wie von selbst, Lederjacken, Silberketten
+Früher hieß es für mich jede Nacht: „Ich bin am Rappen“
+Ich bin immer noch der mit dem Zahnstocher
+Ich schaufel immer noch in Berlin dein Grab, Opfer!
+Was ist jetzt? Mach nur weiter, dummer HundIch ruf Ersguterjunge und schon brennt der Untergrund
+Barbeque is over, bounce, wenn ich komme
+Ich trag „Carlo Gangster” Shirts und werd braun unter der Sonne
+Der Dschungel aus Beton, die Lunge voller Smog
+Glaub mir niemand anders hat zwei mal Gold am Block
+Du bist ein nasses Hemd, ich seh der Asphalt brennt
+Ich bin dieser Junge den man auch im Knast erkennt
+Ich hab Benzin im Blut, der Horizont ist Schwarz geworden
+Deine krassen Freunde sind in meinem Arsch gestorben
+Da gibt es ein Problem: Ich bin gemein wie 10
+Guck hoch, du kannst ein B auf meiner Skyline sehen
+[Hook]
+Es geht von der Skyline zum Bordstein zurück
+Siehst du unsere Welt, wie sie niemals still steht, yeah?
+Ich hab vom Horizont zum Asphalt geblickt
+Es ist unser Leben in der Stadt die niemals Schläft, yeah!
+Von der Skyline zum Bordstein zurück
+Denn um umzukehren ist es leider schon zu spät, yeah!
+Ich hab vom Horizont zum Asphalt geblickt
+Ich bin dieser Junge und ich bleib auf meinem Weg, yeah!
+[Scratches]
+„Von der Skyline zum Bordstein zurück“
+„–Bordstein zurück“
+„Von der Skyline zum Bordstein zurück“
+„Vom Horizont zum Asphalt“
+„Von der Skyline zum Bordstein zurück“
+„Siehst du unsere Welt“
+„Von der Skyline zum Bordstein zurück“
+„Es ist unser Leben in–“
+[Part 3]
+Es geht wie von selbst, man sagt das ich perfekt bin
+Ich bin Streetfighter, weil die Strassen voller Keks sind
+Es ist mein Bezirk, scheiße wa'?Bushido bringt Rap wieder in die Dreißiger
+Es ist Zeit fürs Bett, denkt ihr, ihr seid Kugelsicher?
+Jeder hier im Rapgeschäft ist für mich ein schwuler Stricher
+Friss den Bordstein, ich gehe durch mein Viertel
+Du hast irgendwas zu sagen, komm erzähl es meinem Gürtel
+Hast du Mut oder Angst? Rap ist was du nicht kannstIch bin hart wie mein Schwanz und komm Nachts ausm Schrank
+Ich bin, unantastbar, der Rapper der im Knast warDu und deine Freunde sind die Typen die nie Krass warn
+Guck du Bastard ich komme in der Dunkelheit
+Mama sagt ich darf mit keinem von euch Kumpel sein
+Und vom Horizont zurück auf die Street, yeah!Sonny Black back am Block – Mission Complete!
+[Hook]
+Es geht von der Skyline zum Bordstein zurück
+Siehst du unsere Welt, wie sie niemals still steht, yeah?
+Ich hab vom Horizont zum Asphalt geblickt
+Es ist unser Leben in der Stadt die niemals Schläft, yeah!
+Von der Skyline zum Bordstein zurück
+Denn um umzukehren ist es leider schon zu spät, yeah!
+Ich hab vom Horizont zum Asphalt geblickt
+Ich bin dieser Junge und ich bleib auf meinem Weg, yeah!</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1487,7 +2959,23 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[Part]Ich dank dir Mama, du hast mich auf die Welt gebrachtIch weiß ohne dich hätt' ich es nicht selbst geschafftImmer wieder hast du mich unterstütztFür wen mach' ich das alles hier richtig für dich MamaIch danke dir und meinem Bruder SercanD-Bo weißt du noch früher warn wir sehr armJetzt sind wir der Inbegriff von hartem RapDas geht an meine beiden kleinen Brüder Saad und EkIch bin zuhause und sitze am ComputerSchau aus dem Fenster und seh Stickle und ChakuzaDas ist für Billy 13, aber wir warn leider nicht komplettIch wollte erst noch Bizzy reinnehmenFür Neffi der mich signte oja ich danke ihm, Kingsize, Decay oder Cassandra SteenAn meinen Anwalt ohne dich wär es mir zuvielDas geht ans Café, Ari und HamudiAn meine Fans, meine Band oder mein FriseurEs wurde alles wahr dieser Plan in mein' GehirnAlle von Universal ihr macht einen HammerjobIch bin dankbar deshalb glaubt dieser Mann an Gott</t>
+          <t>[Part]
+Ich dank dir Mama, du hast mich auf die Welt gebracht
+Ich weiß ohne dich hätt' ich es nicht selbst geschafftImmer wieder hast du mich unterstützt
+Für wen mach' ich das alles hier richtig für dich Mama
+Ich danke dir und meinem Bruder Sercan
+D-Bo weißt du noch früher warn wir sehr armJetzt sind wir der Inbegriff von hartem Rap
+Das geht an meine beiden kleinen Brüder Saad und Ek
+Ich bin zuhause und sitze am Computer
+Schau aus dem Fenster und seh Stickle und Chakuza
+Das ist für Billy 13, aber wir warn leider nicht komplettIch wollte erst noch Bizzy reinnehmen
+Für Neffi der mich signte oja ich danke ihm, Kingsize, Decay oder Cassandra Steen
+An meinen Anwalt ohne dich wär es mir zuviel
+Das geht ans Café, Ari und Hamudi
+An meine Fans, meine Band oder mein Friseur
+Es wurde alles wahr dieser Plan in mein' Gehirn
+Alle von Universal ihr macht einen Hammerjob
+Ich bin dankbar deshalb glaubt dieser Mann an Gott</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1539,9 +3027,92 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[Part 1]Vom Bordstein zurück, Sonny Black, LamborghiniAll die Nutten trinken heute Sekt im BikiniUnd bis zur Skyline, bin ich der UndertakerIch scheiß auf dich, ihn und auf all die ander'n GegnerZurück zum Bordstein, Homie, es war Peter HartzErsguterjunge, wir sind wie die PKKUnd bis zur Skyline habt ihr meinen Kopf geficktDeine Rabenmutter ist so fett wie Moby DickZurück zum Bordstein, ich sitze im BeamerDu kriegst den Kanakenschwanz in deine VaginaUnd bis zur Skyline werfe ich mit Steinen rumDu willst mich dissen, das ist MajestätsbeleidigungZurück zum Bordstein, es sind Hits, die ich schreibGuck dich an, wie kann man so 'ne Pissnelke sein?Und bis zur Skyline, der Markt ist im EimerDein krasses Aggro-Label ist ein Grafikdesigner[Hook]Zurück zum Bordstein, ich komm' von der SkylineIch häng' draußen ab, wer von euch will mein Feind sein?Und schon wieder bin ich wieder verrücktGuck vom Bordstein bis zur Skyline und wieder zurück, yeahUnd von der Skyline zurück auf den BordsteinSonny Black, back am Block, es ist Cordon-Sport-TimeManchmal denk ich, ich hab tierisches GlückGuck vom Bordstein bis zur Skyline und wieder zurück, yeah
-[Part 2]Vom Bordstein zurück, beim Picknick auf SpeedDer Sinn meiner Titel ist: Fick dich ins Knie, yeahUnd bis zur Skyline zu kommen war mein ZukunftsplanErsguterjunge, wir sind wie der Ku-Klux-KlanZurück zum Bordstein, BewusstseinserweiterungGuck dich an, du machst im Puff mit den Freiern rumUnd bis zur Skyline Fick deine Mutter-SchieneIch bin der Krasseste, von hier bis in die UkraineZurück zum Bordstein, der, der seine Parts lebtUnd für mich bist und bleibst du nur ein ArschkeksUnd bis zur Skyline fliegen die weißen TaubenFang mich an zu haten und dir fehlen die beiden DaumenZurück zum Bordstein, ich pumpe es seit WochenZuhause stehst du Spast leider unter'm PantoffelUnd bis zur Skyline die goldene PlatteJunge, denn früher saß ich voll in der Kacke, yeah[Hook]Zurück zum Bordstein, ich komm' von der SkylineIch häng' draußen ab, wer von euch will mein Feind sein?Und schon wieder bin ich wieder verrücktGuck vom Bordstein bis zur Skyline und wieder zurück, yeahUnd von der Skyline zurück auf den BordsteinSonny Black, back am Block, es ist Cordon-Sport-TimeManchmal denk ich, ich hab tierisches GlückGuck vom Bordstein bis zur Skyline und wieder zurück, yeah
-[Part 3]Zum Bordstein zurück, es ist Sonny Black GangsterErsguterjunge, wir sind wie die Black PantherUnd bis zur Skyline bin ich sehr zufriedenFrauen sind in meiner Heimat nur GebärmaschinenZurück zum Bordstein, als hätte dich ein Pferd gebumstIch sing ein Ständchen bei deiner BeerdigungUnd bis zur Skyline, arabische FreundeManche Leute nennen mich tasmanischer TeufelAm Bordstein, wo du Ärger vermeiden willstKlag mich an, ich pumpe Sperma in deine JillUnd bis zur Skyline gibt es Thai-MassagenIch bin down mit Kingsize, bitte weitersagenZurück zum Bordstein, Raps Al CaponeDer Ex-Koks-Ticker macht mit Rap seine KohleUnd bis zur Skyline knallt der BeatGuck, ich trage immer noch meine Picaldi-Jeans, yeah[Hook]Zurück zum Bordstein, ich komm' von der SkylineIch häng' draußen ab, wer von euch will mein Feind sein?Und schon wieder bin ich wieder verrücktGuck vom Bordstein bis zur Skyline und wieder zurück, yeahUnd von der Skyline zurück auf den BordsteinSonny Black, back am Block, es ist Cordon-Sport-TimeManchmal denk ich, ich hab tierisches GlückGuck vom Bordstein bis zur Skyline und wieder zurück, yeahZurück zum Bordstein, ich komm' von der SkylineIch häng' draußen ab, wer von euch will mein Feind sein?Und schon wieder bin ich wieder verrücktGuck vom Bordstein bis zur Skyline und wieder zurück, yeahUnd von der Skyline zurück auf den BordsteinSonny Black, back am Block, es ist Cordon-Sport-TimeManchmal denk ich, ich hab tierisches GlückGuck vom Bordstein bis zur Skyline und wieder zurück, yeah</t>
+          <t>[Part 1]
+Vom Bordstein zurück, Sonny Black, Lamborghini
+All die Nutten trinken heute Sekt im Bikini
+Und bis zur Skyline, bin ich der Undertaker
+Ich scheiß auf dich, ihn und auf all die ander'n Gegner
+Zurück zum Bordstein, Homie, es war Peter Hartz
+Ersguterjunge, wir sind wie die PKK
+Und bis zur Skyline habt ihr meinen Kopf gefickt
+Deine Rabenmutter ist so fett wie Moby Dick
+Zurück zum Bordstein, ich sitze im Beamer
+Du kriegst den Kanakenschwanz in deine Vagina
+Und bis zur Skyline werfe ich mit Steinen rum
+Du willst mich dissen, das ist Majestätsbeleidigung
+Zurück zum Bordstein, es sind Hits, die ich schreib
+Guck dich an, wie kann man so 'ne Pissnelke sein?
+Und bis zur Skyline, der Markt ist im Eimer
+Dein krasses Aggro-Label ist ein Grafikdesigner
+[Hook]
+Zurück zum Bordstein, ich komm' von der Skyline
+Ich häng' draußen ab, wer von euch will mein Feind sein?
+Und schon wieder bin ich wieder verrückt
+Guck vom Bordstein bis zur Skyline und wieder zurück, yeah
+Und von der Skyline zurück auf den Bordstein
+Sonny Black, back am Block, es ist Cordon-Sport-Time
+Manchmal denk ich, ich hab tierisches Glück
+Guck vom Bordstein bis zur Skyline und wieder zurück, yeah
+[Part 2]
+Vom Bordstein zurück, beim Picknick auf Speed
+Der Sinn meiner Titel ist: Fick dich ins Knie, yeah
+Und bis zur Skyline zu kommen war mein Zukunftsplan
+Ersguterjunge, wir sind wie der Ku-Klux-Klan
+Zurück zum Bordstein, Bewusstseinserweiterung
+Guck dich an, du machst im Puff mit den Freiern rum
+Und bis zur Skyline Fick deine Mutter-Schiene
+Ich bin der Krasseste, von hier bis in die Ukraine
+Zurück zum Bordstein, der, der seine Parts lebt
+Und für mich bist und bleibst du nur ein Arschkeks
+Und bis zur Skyline fliegen die weißen Tauben
+Fang mich an zu haten und dir fehlen die beiden Daumen
+Zurück zum Bordstein, ich pumpe es seit Wochen
+Zuhause stehst du Spast leider unter'm Pantoffel
+Und bis zur Skyline die goldene Platte
+Junge, denn früher saß ich voll in der Kacke, yeah
+[Hook]
+Zurück zum Bordstein, ich komm' von der Skyline
+Ich häng' draußen ab, wer von euch will mein Feind sein?
+Und schon wieder bin ich wieder verrückt
+Guck vom Bordstein bis zur Skyline und wieder zurück, yeah
+Und von der Skyline zurück auf den Bordstein
+Sonny Black, back am Block, es ist Cordon-Sport-Time
+Manchmal denk ich, ich hab tierisches Glück
+Guck vom Bordstein bis zur Skyline und wieder zurück, yeah
+[Part 3]
+Zum Bordstein zurück, es ist Sonny Black Gangster
+Ersguterjunge, wir sind wie die Black Panther
+Und bis zur Skyline bin ich sehr zufrieden
+Frauen sind in meiner Heimat nur Gebärmaschinen
+Zurück zum Bordstein, als hätte dich ein Pferd gebumst
+Ich sing ein Ständchen bei deiner Beerdigung
+Und bis zur Skyline, arabische Freunde
+Manche Leute nennen mich tasmanischer Teufel
+Am Bordstein, wo du Ärger vermeiden willst
+Klag mich an, ich pumpe Sperma in deine Jill
+Und bis zur Skyline gibt es Thai-Massagen
+Ich bin down mit Kingsize, bitte weitersagen
+Zurück zum Bordstein, Raps Al Capone
+Der Ex-Koks-Ticker macht mit Rap seine Kohle
+Und bis zur Skyline knallt der Beat
+Guck, ich trage immer noch meine Picaldi-Jeans, yeah
+[Hook]
+Zurück zum Bordstein, ich komm' von der Skyline
+Ich häng' draußen ab, wer von euch will mein Feind sein?
+Und schon wieder bin ich wieder verrückt
+Guck vom Bordstein bis zur Skyline und wieder zurück, yeah
+Und von der Skyline zurück auf den Bordstein
+Sonny Black, back am Block, es ist Cordon-Sport-Time
+Manchmal denk ich, ich hab tierisches Glück
+Guck vom Bordstein bis zur Skyline und wieder zurück, yeah
+Zurück zum Bordstein, ich komm' von der Skyline
+Ich häng' draußen ab, wer von euch will mein Feind sein?
+Und schon wieder bin ich wieder verrückt
+Guck vom Bordstein bis zur Skyline und wieder zurück, yeah
+Und von der Skyline zurück auf den Bordstein
+Sonny Black, back am Block, es ist Cordon-Sport-Time
+Manchmal denk ich, ich hab tierisches Glück
+Guck vom Bordstein bis zur Skyline und wieder zurück, yeah</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1593,9 +3164,83 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[Part 1]Ich bin 2 Fast and 2 FuriousDieser Typ der deiner Hure disstWenn er einmal grade im Studio istGuck die Jacke an, ich bin Alpha RomeoDu krasser Dealer fährst nur den Alfa RomeoNutten zeigen mir ihr BrustwarzenpiercingSagt mir Jungs, wie ist das auf-den-Bus-warten-Feeling?Ich komm mit R-KlasseMan wie ich Fler hasseGangster Nummer 1, dafür musste ich schwer hustlenSehr Klasse, ich schlafe im HotelIch komme im Mercedes Jeep, Brabus ModellIch fahre so schnell, die Cordon gepacktEs ist Drive-By, ich komme im Porsche du SpasstIch bin der dir auf die Fresse boxt, KingManchmal denke ich das ich David Hasselhoff binSchau mein Auto an, es ist tight, KleinerIch bin Bushido, doch für dich heiß ich der Knight Rider![Hook]Ich bin der Knight Rider keiner kann mich aufhaltenAus meinem Leben solltest du dich besser raus haltenWir sind in Tempelhof, hier gibt es kein TempolimitUndercover, Drogen, Kickboxen mit dem längsten PimmelIch bin der Knight Rider keiner kann mich aufhaltenWenn ich will lasse ich dich einfach ausschaltenWir sind in Tempelhof, hier gibt es kein TempolimitWenn ich einmal sterbe komm ich in den Gangsterhimmel
-[Part 2]Ich bin 2 Fast and 2 Furious, weil meine Name Bushido istIch fick dich, wenn du grade im Kino sitztEs ist Bugatti, ich komm auf die PartyHabe dir schonmal gesagt dass du dir nur ein' Smart leastIch komm im Bentley, schau wie mir der Benz stehtElektrofensterheber, ich kann all' die Fans sehnDie Welt ist mein, Junge, zieh dir meine Felgen reinJedes Auto das ich fahre ist ne' SeltenheitSex on the Beach, bring die Strand Bunnys herWas kann ich dafür das du nur ein' Strand Buggy fährstEs ist BMW, das ist der X 5erEs ist BMW, ich bin ein MitgründerScheiß auf den Rest, die Enemys sind plattSag mir wer hat Angst, komm' wir fahrn' Rennen durch die StadtIhr Penner seit beknackt, ich fahr auf Tour im Night LinerIch bin Bushido doch für dich heiß ich der Knight Rider![Hook]Ich bin der Knight Rider keiner kann mich aufhaltenAus meinem Leben solltest du dich besser raus haltenWir sind in Tempelhof, hier gibt es kein TempolimitUndercover, Drogen, Kickboxen mit dem längsten PimmelIch bin der Knight Rider keiner kann mich aufhaltenWenn ich will lasse ich dich einfach ausschaltenWir sind in Tempelhof, hier gibt es kein TempolimitWenn ich einmal sterbe komm ich in den Gangsterhimmel
-[Part 3]Ich bin 2 Fast and 2 Furious, der weil er Cash hat am rulen is'Dieser Typ der extra noch Schwule disstIm 7er hab ich mein eigenes Süppchen gekochtNeben mir das aller heißeste Püppchen am BlockCatch me if you can, Backstage wird gebangtIch fahre Limousine wie ein echter PräsidentDer beste Rapper den du kennst, von hier bis NicaraguaDu kommst im alten Trabbi, ich komme im JaguarEs ist Fortress, ich komm in ner CorvetteUnd bin immernoch der Typ, der in ner Cordon Sport rapptGuck den Mustang, du kommst in nem Bus anIch bin Staatsfeind Nr.1 von hier bis nach RusslandJunge wann gibt es nen BoxenstoppDu bist kein Gangster, du bist nur Räuber HotzenplotzDu bist ein Fotzenkopf, um mich stehen geile WeiberIch bin Bushido doch für dich heiß ich der Knight Rider![Hook]Ich bin der Knight Rider keiner kann mich aufhaltenAus meinem Leben solltest du dich besser raus haltenWir sind in Tempelhof, hier gibt es kein TempolimitUndercover, Drogen, Kickboxen mit dem längsten PimmelIch bin der Knight Rider keiner kann mich aufhaltenWenn ich will lasse ich dich einfach ausschaltenWir sind in Tempelhof, hier gibt es kein TempolimitWenn ich einmal sterbe komm ich in den Gangsterhimmel</t>
+          <t>[Part 1]
+Ich bin 2 Fast and 2 Furious
+Dieser Typ der deiner Hure disst
+Wenn er einmal grade im Studio ist
+Guck die Jacke an, ich bin Alpha Romeo
+Du krasser Dealer fährst nur den Alfa Romeo
+Nutten zeigen mir ihr Brustwarzenpiercing
+Sagt mir Jungs, wie ist das auf-den-Bus-warten-Feeling?
+Ich komm mit R-Klasse
+Man wie ich Fler hasse
+Gangster Nummer 1, dafür musste ich schwer hustlen
+Sehr Klasse, ich schlafe im Hotel
+Ich komme im Mercedes Jeep, Brabus Modell
+Ich fahre so schnell, die Cordon gepackt
+Es ist Drive-By, ich komme im Porsche du Spasst
+Ich bin der dir auf die Fresse boxt, King
+Manchmal denke ich das ich David Hasselhoff bin
+Schau mein Auto an, es ist tight, Kleiner
+Ich bin Bushido, doch für dich heiß ich der Knight Rider!
+[Hook]
+Ich bin der Knight Rider keiner kann mich aufhalten
+Aus meinem Leben solltest du dich besser raus halten
+Wir sind in Tempelhof, hier gibt es kein TempolimitUndercover, Drogen, Kickboxen mit dem längsten Pimmel
+Ich bin der Knight Rider keiner kann mich aufhalten
+Wenn ich will lasse ich dich einfach ausschalten
+Wir sind in Tempelhof, hier gibt es kein Tempolimit
+Wenn ich einmal sterbe komm ich in den Gangsterhimmel
+[Part 2]
+Ich bin 2 Fast and 2 Furious, weil meine Name Bushido ist
+Ich fick dich, wenn du grade im Kino sitzt
+Es ist Bugatti, ich komm auf die Party
+Habe dir schonmal gesagt dass du dir nur ein' Smart least
+Ich komm im Bentley, schau wie mir der Benz steht
+Elektrofensterheber, ich kann all' die Fans sehn
+Die Welt ist mein, Junge, zieh dir meine Felgen rein
+Jedes Auto das ich fahre ist ne' Seltenheit
+Sex on the Beach, bring die Strand Bunnys her
+Was kann ich dafür das du nur ein' Strand Buggy fährst
+Es ist BMW, das ist der X 5er
+Es ist BMW, ich bin ein Mitgründer
+Scheiß auf den Rest, die Enemys sind platt
+Sag mir wer hat Angst, komm' wir fahrn' Rennen durch die Stadt
+Ihr Penner seit beknackt, ich fahr auf Tour im Night Liner
+Ich bin Bushido doch für dich heiß ich der Knight Rider!
+[Hook]
+Ich bin der Knight Rider keiner kann mich aufhalten
+Aus meinem Leben solltest du dich besser raus halten
+Wir sind in Tempelhof, hier gibt es kein TempolimitUndercover, Drogen, Kickboxen mit dem längsten Pimmel
+Ich bin der Knight Rider keiner kann mich aufhalten
+Wenn ich will lasse ich dich einfach ausschalten
+Wir sind in Tempelhof, hier gibt es kein Tempolimit
+Wenn ich einmal sterbe komm ich in den Gangsterhimmel
+[Part 3]
+Ich bin 2 Fast and 2 Furious, der weil er Cash hat am rulen is'
+Dieser Typ der extra noch Schwule disst
+Im 7er hab ich mein eigenes Süppchen gekocht
+Neben mir das aller heißeste Püppchen am Block
+Catch me if you can, Backstage wird gebangt
+Ich fahre Limousine wie ein echter Präsident
+Der beste Rapper den du kennst, von hier bis Nicaragua
+Du kommst im alten Trabbi, ich komme im Jaguar
+Es ist Fortress, ich komm in ner Corvette
+Und bin immernoch der Typ, der in ner Cordon Sport rappt
+Guck den Mustang, du kommst in nem Bus an
+Ich bin Staatsfeind Nr.1 von hier bis nach Russland
+Junge wann gibt es nen Boxenstopp
+Du bist kein Gangster, du bist nur Räuber Hotzenplotz
+Du bist ein Fotzenkopf, um mich stehen geile Weiber
+Ich bin Bushido doch für dich heiß ich der Knight Rider!
+[Hook]
+Ich bin der Knight Rider keiner kann mich aufhalten
+Aus meinem Leben solltest du dich besser raus halten
+Wir sind in Tempelhof, hier gibt es kein TempolimitUndercover, Drogen, Kickboxen mit dem längsten Pimmel
+Ich bin der Knight Rider keiner kann mich aufhalten
+Wenn ich will lasse ich dich einfach ausschalten
+Wir sind in Tempelhof, hier gibt es kein Tempolimit
+Wenn ich einmal sterbe komm ich in den Gangsterhimmel</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
